--- a/migration/result.xlsx
+++ b/migration/result.xlsx
@@ -363,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H278"/>
   <sheetData>
     <row r="1" spans="1:8" customFormat="false">
       <c r="A1" s="0" t="str">
@@ -393,80 +393,7202 @@
     </row>
     <row r="2" spans="1:8" customFormat="false">
       <c r="A2" s="0" t="str">
-        <v>0005554990</v>
+        <v>0005529026</v>
       </c>
       <c r="B2" s="0" t="str">
-        <v>2022-04-29</v>
+        <v>2022-04-13</v>
       </c>
       <c r="C2" s="0" t="str">
-        <v>08:46:11</v>
+        <v>04:16:44</v>
       </c>
       <c r="D2" s="0">
-        <v>19.68615</v>
-      </c>
-      <c r="E2" s="0">
-        <v>-101.23427649999999</v>
+        <v>19.3420623</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v>192.168.100.19</v>
       </c>
       <c r="F2" s="0" t="str">
-        <v>192.168.100.11</v>
+        <v>Redmi Note 8</v>
       </c>
       <c r="G2" s="0" t="str">
-        <v>JSN-L23</v>
+        <v>51157006</v>
       </c>
       <c r="H2" s="0" t="str">
-        <v>26211</v>
+        <v>36364</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="false">
       <c r="A3" s="0" t="str">
-        <v>0005554848</v>
+        <v>0002541678</v>
       </c>
       <c r="B3" s="0" t="str">
-        <v>2022-04-29</v>
+        <v>2022-04-13</v>
       </c>
       <c r="C3" s="0" t="str">
-        <v>08:48:33</v>
+        <v>05:46:58</v>
       </c>
       <c r="D3" s="0">
-        <v>19.6861698</v>
-      </c>
-      <c r="E3" s="0">
-        <v>-101.2342557</v>
+        <v>23.2060547</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <v>10.213.3.21</v>
       </c>
       <c r="F3" s="0" t="str">
-        <v>192.168.100.11</v>
+        <v>M2103K19G</v>
       </c>
       <c r="G3" s="0" t="str">
-        <v>JSN-L23</v>
+        <v>51157187</v>
       </c>
       <c r="H3" s="0" t="str">
-        <v>26212</v>
+        <v>36365</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="false">
       <c r="A4" s="0" t="str">
+        <v>0002222391</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C4" s="0" t="str">
+        <v>02:18:00</v>
+      </c>
+      <c r="D4" s="0">
+        <v>20.670801</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <v>192.168.1.64</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <v>51156912</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <v>36366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" customFormat="false">
+      <c r="A5" s="0" t="str">
+        <v>0005528723</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <v>02:49:46</v>
+      </c>
+      <c r="D5" s="0">
+        <v>19.4851788</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <v>192.168.0.32</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <v>moto e(7i) power</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <v>51156936</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v>36367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="false">
+      <c r="A6" s="0" t="str">
+        <v>0004348608</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C6" s="0" t="str">
+        <v>06:54:49</v>
+      </c>
+      <c r="D6" s="0">
+        <v>19.485204</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <v>192.168.0.6</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <v>moto e(6) plus</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <v>51157197</v>
+      </c>
+      <c r="H6" s="0" t="str">
+        <v>36368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="false">
+      <c r="A7" s="0" t="str">
+        <v>0004344159</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C7" s="0" t="str">
+        <v>08:53:45</v>
+      </c>
+      <c r="D7" s="0">
+        <v>19.4458969</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <v>192.168.1.70</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <v>SM-A505G</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <v>51156834</v>
+      </c>
+      <c r="H7" s="0" t="str">
+        <v>36369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="false">
+      <c r="A8" s="0" t="str">
+        <v>0005529537</v>
+      </c>
+      <c r="B8" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C8" s="0" t="str">
+        <v>06:19:07</v>
+      </c>
+      <c r="D8" s="0">
+        <v>20.6707887</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <v>192.168.1.64</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <v>51157121</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <v>36370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customFormat="false">
+      <c r="A9" s="0" t="str">
+        <v>0004957026</v>
+      </c>
+      <c r="B9" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <v>06:59:51</v>
+      </c>
+      <c r="D9" s="0">
+        <v>19.4269233</v>
+      </c>
+      <c r="E9" s="0" t="str">
+        <v>10.222.50.86</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <v>51157167</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <v>36371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customFormat="false">
+      <c r="A10" s="0" t="str">
+        <v>0001133175</v>
+      </c>
+      <c r="B10" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C10" s="0" t="str">
+        <v>12:06:43</v>
+      </c>
+      <c r="D10" s="0">
+        <v>29.0809395</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <v>10.149.239.252</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <v>51156897</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <v>36372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customFormat="false">
+      <c r="A11" s="0" t="str">
+        <v>0005528726</v>
+      </c>
+      <c r="B11" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C11" s="0" t="str">
+        <v>12:53:56</v>
+      </c>
+      <c r="D11" s="0">
+        <v>19.6861351</v>
+      </c>
+      <c r="E11" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <v>51156937</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <v>36373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customFormat="false">
+      <c r="A12" s="0" t="str">
+        <v>0005526868</v>
+      </c>
+      <c r="B12" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C12" s="0" t="str">
+        <v>02:20:42</v>
+      </c>
+      <c r="D12" s="0">
+        <v>19.4336997</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <v>192.168.0.6</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <v>CPH2239</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <v>51156992</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <v>36374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" customFormat="false">
+      <c r="A13" s="0" t="str">
+        <v>0005529604</v>
+      </c>
+      <c r="B13" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C13" s="0" t="str">
+        <v>06:36:13</v>
+      </c>
+      <c r="D13" s="0">
+        <v>20.6801025</v>
+      </c>
+      <c r="E13" s="0" t="str">
+        <v>10.103.78.219</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <v>SM-G988B</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <v>51157137</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <v>36375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="false">
+      <c r="A14" s="0" t="str">
+        <v>0002012560</v>
+      </c>
+      <c r="B14" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C14" s="0" t="str">
+        <v>06:42:30</v>
+      </c>
+      <c r="D14" s="0">
+        <v>19.3419824</v>
+      </c>
+      <c r="E14" s="0" t="str">
+        <v>192.168.100.19</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <v>51157141</v>
+      </c>
+      <c r="H14" s="0" t="str">
+        <v>36376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customFormat="false">
+      <c r="A15" s="0" t="str">
+        <v>0004956245</v>
+      </c>
+      <c r="B15" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C15" s="0" t="str">
+        <v>03:59:15</v>
+      </c>
+      <c r="D15" s="0">
+        <v>19.4270411</v>
+      </c>
+      <c r="E15" s="0" t="str">
+        <v>10.33.21.41</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <v>moto e(7) plus</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <v>51156997</v>
+      </c>
+      <c r="H15" s="0" t="str">
+        <v>36377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customFormat="false">
+      <c r="A16" s="0" t="str">
+        <v>0005528763</v>
+      </c>
+      <c r="B16" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C16" s="0" t="str">
+        <v>02:57:39</v>
+      </c>
+      <c r="D16" s="0">
+        <v>19.4851267</v>
+      </c>
+      <c r="E16" s="0" t="str">
+        <v>192.168.0.6</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <v>moto e(6) plus</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <v>51156945</v>
+      </c>
+      <c r="H16" s="0" t="str">
+        <v>36378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customFormat="false">
+      <c r="A17" s="0" t="str">
+        <v>0005528824</v>
+      </c>
+      <c r="B17" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C17" s="0" t="str">
+        <v>03:09:41</v>
+      </c>
+      <c r="D17" s="0">
+        <v>20.680132</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <v>10.98.104.83</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <v>SM-G988B</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <v>51156960</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <v>36379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customFormat="false">
+      <c r="A18" s="0" t="str">
+        <v>0005528951</v>
+      </c>
+      <c r="B18" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C18" s="0" t="str">
+        <v>03:51:11</v>
+      </c>
+      <c r="D18" s="0">
+        <v>20.6707989</v>
+      </c>
+      <c r="E18" s="0" t="str">
+        <v>192.168.1.64</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <v>51156995</v>
+      </c>
+      <c r="H18" s="0" t="str">
+        <v>36380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customFormat="false">
+      <c r="A19" s="0" t="str">
+        <v>0005529061</v>
+      </c>
+      <c r="B19" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C19" s="0" t="str">
+        <v>02:22:53</v>
+      </c>
+      <c r="D19" s="0">
+        <v>32.6084774</v>
+      </c>
+      <c r="E19" s="0" t="str">
+        <v>172.20.10.5</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <v>51157017</v>
+      </c>
+      <c r="H19" s="0" t="str">
+        <v>36381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customFormat="false">
+      <c r="A20" s="0" t="str">
+        <v>0005530388</v>
+      </c>
+      <c r="B20" s="0" t="str">
+        <v>2022-04-14</v>
+      </c>
+      <c r="C20" s="0" t="str">
+        <v>10:53:08</v>
+      </c>
+      <c r="D20" s="0">
+        <v>20.5846174</v>
+      </c>
+      <c r="E20" s="0" t="str">
+        <v>192.168.5.71</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <v>51157257</v>
+      </c>
+      <c r="H20" s="0" t="str">
+        <v>36382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" customFormat="false">
+      <c r="A21" s="0" t="str">
+        <v>0005227540</v>
+      </c>
+      <c r="B21" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C21" s="0" t="str">
+        <v>05:43:11</v>
+      </c>
+      <c r="D21" s="0">
+        <v>19.3419756</v>
+      </c>
+      <c r="E21" s="0" t="str">
+        <v>192.168.100.19</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <v>51157259</v>
+      </c>
+      <c r="H21" s="0" t="str">
+        <v>36383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="false">
+      <c r="A22" s="0" t="str">
+        <v>0005289059</v>
+      </c>
+      <c r="B22" s="0" t="str">
+        <v>2022-04-14</v>
+      </c>
+      <c r="C22" s="0" t="str">
+        <v>10:41:38</v>
+      </c>
+      <c r="D22" s="0">
+        <v>20.6708365</v>
+      </c>
+      <c r="E22" s="0" t="str">
+        <v>192.168.1.64</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <v>51157252</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <v>36384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" customFormat="false">
+      <c r="A23" s="0" t="str">
+        <v>0005156252</v>
+      </c>
+      <c r="B23" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C23" s="0" t="str">
+        <v>07:00:09</v>
+      </c>
+      <c r="D23" s="0">
+        <v>19.3420612</v>
+      </c>
+      <c r="E23" s="0" t="str">
+        <v>192.168.100.19</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <v>51157247</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <v>36385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="false">
+      <c r="A24" s="0" t="str">
+        <v>0000136255</v>
+      </c>
+      <c r="B24" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C24" s="0" t="str">
+        <v>11:50:40</v>
+      </c>
+      <c r="D24" s="0">
+        <v>19.4271394</v>
+      </c>
+      <c r="E24" s="0" t="str">
+        <v>10.234.0.95</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <v>51157535</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <v>36386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customFormat="false">
+      <c r="A25" s="0" t="str">
+        <v>0005289488</v>
+      </c>
+      <c r="B25" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C25" s="0" t="str">
+        <v>11:39:54</v>
+      </c>
+      <c r="D25" s="0">
+        <v>24.030425</v>
+      </c>
+      <c r="E25" s="0" t="str">
+        <v>10.250.99.216</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <v>G91</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <v>51157497</v>
+      </c>
+      <c r="H25" s="0" t="str">
+        <v>36387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="false">
+      <c r="A26" s="0" t="str">
+        <v>0005255839</v>
+      </c>
+      <c r="B26" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C26" s="0" t="str">
+        <v>01:29:19</v>
+      </c>
+      <c r="D26" s="0">
+        <v>23.2061778</v>
+      </c>
+      <c r="E26" s="0" t="str">
+        <v>10.99.65.156</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <v>M2103K19G</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <v>51157581</v>
+      </c>
+      <c r="H26" s="0" t="str">
+        <v>36388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" customFormat="false">
+      <c r="A27" s="0" t="str">
+        <v>0005536804</v>
+      </c>
+      <c r="B27" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C27" s="0" t="str">
+        <v>06:25:55</v>
+      </c>
+      <c r="D27" s="0">
+        <v>25.6464958</v>
+      </c>
+      <c r="E27" s="0" t="str">
+        <v>192.168.0.104</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <v>SM-T540</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <v>51157781</v>
+      </c>
+      <c r="H27" s="0" t="str">
+        <v>36389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" customFormat="false">
+      <c r="A28" s="0" t="str">
+        <v>0005328751</v>
+      </c>
+      <c r="B28" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C28" s="0" t="str">
+        <v>01:51:20</v>
+      </c>
+      <c r="D28" s="0">
+        <v>25.7620871</v>
+      </c>
+      <c r="E28" s="0" t="str">
+        <v>10.185.103.213</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <v>moto g(9) plus</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <v>51157843</v>
+      </c>
+      <c r="H28" s="0" t="str">
+        <v>36390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" customFormat="false">
+      <c r="A29" s="0" t="str">
+        <v>0005537278</v>
+      </c>
+      <c r="B29" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C29" s="0" t="str">
+        <v>02:07:47</v>
+      </c>
+      <c r="D29" s="0">
+        <v>31.7013306</v>
+      </c>
+      <c r="E29" s="0" t="str">
+        <v>192.168.100.20</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <v>SM-A025F</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <v>51157650</v>
+      </c>
+      <c r="H29" s="0" t="str">
+        <v>36391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" customFormat="false">
+      <c r="A30" s="0" t="str">
+        <v>0005537370</v>
+      </c>
+      <c r="B30" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C30" s="0" t="str">
+        <v>05:59:00</v>
+      </c>
+      <c r="D30" s="0">
+        <v>21.1288485</v>
+      </c>
+      <c r="E30" s="0" t="str">
+        <v>10.211.58.195</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <v>51157761</v>
+      </c>
+      <c r="H30" s="0" t="str">
+        <v>36392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" customFormat="false">
+      <c r="A31" s="0" t="str">
+        <v>0001837562</v>
+      </c>
+      <c r="B31" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C31" s="0" t="str">
+        <v>03:37:36</v>
+      </c>
+      <c r="D31" s="0">
+        <v>19.2483689</v>
+      </c>
+      <c r="E31" s="0" t="str">
+        <v>10.203.241.115</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <v>SM-G9600</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <v>51157762</v>
+      </c>
+      <c r="H31" s="0" t="str">
+        <v>36393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="false">
+      <c r="A32" s="0" t="str">
+        <v>0005537857</v>
+      </c>
+      <c r="B32" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C32" s="0" t="str">
+        <v>06:54:32</v>
+      </c>
+      <c r="D32" s="0">
+        <v>31.7013187</v>
+      </c>
+      <c r="E32" s="0" t="str">
+        <v>192.168.100.20</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <v>SM-A025F</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <v>51157845</v>
+      </c>
+      <c r="H32" s="0" t="str">
+        <v>36394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="false">
+      <c r="A33" s="0" t="str">
+        <v>0005532152</v>
+      </c>
+      <c r="B33" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C33" s="0" t="str">
+        <v>01:32:09</v>
+      </c>
+      <c r="D33" s="0">
+        <v>19.4269279</v>
+      </c>
+      <c r="E33" s="0" t="str">
+        <v>10.48.170.221</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <v>21061119AL</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <v>51157564</v>
+      </c>
+      <c r="H33" s="0" t="str">
+        <v>36395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="false">
+      <c r="A34" s="0" t="str">
+        <v>0005536602</v>
+      </c>
+      <c r="B34" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C34" s="0" t="str">
+        <v>01:42:12</v>
+      </c>
+      <c r="D34" s="0">
+        <v>19.4852658</v>
+      </c>
+      <c r="E34" s="0" t="str">
+        <v>192.168.0.6</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <v>moto e(6) plus</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <v>51157565</v>
+      </c>
+      <c r="H34" s="0" t="str">
+        <v>36396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="false">
+      <c r="A35" s="0" t="str">
+        <v>0005536883</v>
+      </c>
+      <c r="B35" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C35" s="0" t="str">
+        <v>11:46:08</v>
+      </c>
+      <c r="D35" s="0">
+        <v>31.8671465</v>
+      </c>
+      <c r="E35" s="0" t="str">
+        <v>10.24.180.71</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <v>51157569</v>
+      </c>
+      <c r="H35" s="0" t="str">
+        <v>36397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="false">
+      <c r="A36" s="0" t="str">
+        <v>0004971376</v>
+      </c>
+      <c r="B36" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C36" s="0" t="str">
+        <v>02:37:37</v>
+      </c>
+      <c r="D36" s="0">
+        <v>20.11606</v>
+      </c>
+      <c r="E36" s="0" t="str">
+        <v>10.81.31.224</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <v>moto g(8) power lite</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <v>51157594</v>
+      </c>
+      <c r="H36" s="0" t="str">
+        <v>36398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="false">
+      <c r="A37" s="0" t="str">
+        <v>0005537117</v>
+      </c>
+      <c r="B37" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C37" s="0" t="str">
+        <v>03:57:13</v>
+      </c>
+      <c r="D37" s="0">
+        <v>18.0011304</v>
+      </c>
+      <c r="E37" s="0" t="str">
+        <v>10.22.165.55</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <v>moto g(7) power</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <v>51157655</v>
+      </c>
+      <c r="H37" s="0" t="str">
+        <v>36399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="false">
+      <c r="A38" s="0" t="str">
+        <v>0005537321</v>
+      </c>
+      <c r="B38" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C38" s="0" t="str">
+        <v>04:00:47</v>
+      </c>
+      <c r="D38" s="0">
+        <v>20.5846096</v>
+      </c>
+      <c r="E38" s="0" t="str">
+        <v>192.168.5.71</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <v>51157670</v>
+      </c>
+      <c r="H38" s="0" t="str">
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="false">
+      <c r="A39" s="0" t="str">
+        <v>0005537375</v>
+      </c>
+      <c r="B39" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C39" s="0" t="str">
+        <v>04:44:24</v>
+      </c>
+      <c r="D39" s="0">
+        <v>24.0239813</v>
+      </c>
+      <c r="E39" s="0" t="str">
+        <v>10.65.69.41</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <v>SNE-LX3</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <v>51157691</v>
+      </c>
+      <c r="H39" s="0" t="str">
+        <v>36401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" customFormat="false">
+      <c r="A40" s="0" t="str">
+        <v>0005328661</v>
+      </c>
+      <c r="B40" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C40" s="0" t="str">
+        <v>05:40:17</v>
+      </c>
+      <c r="D40" s="0">
+        <v>25.6738749</v>
+      </c>
+      <c r="E40" s="0" t="str">
+        <v>192.168.1.69</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <v>SM-A715F</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <v>51157738</v>
+      </c>
+      <c r="H40" s="0" t="str">
+        <v>36402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" customFormat="false">
+      <c r="A41" s="0" t="str">
+        <v>0005537419</v>
+      </c>
+      <c r="B41" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C41" s="0" t="str">
+        <v>06:11:03</v>
+      </c>
+      <c r="D41" s="0">
+        <v>19.4336753</v>
+      </c>
+      <c r="E41" s="0" t="str">
+        <v>192.168.0.8</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <v>CPH2239</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <v>51157765</v>
+      </c>
+      <c r="H41" s="0" t="str">
+        <v>36403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" customFormat="false">
+      <c r="A42" s="0" t="str">
+        <v>0005537606</v>
+      </c>
+      <c r="B42" s="0" t="str">
+        <v>2022-04-13</v>
+      </c>
+      <c r="C42" s="0" t="str">
+        <v>01:59:32</v>
+      </c>
+      <c r="D42" s="0">
+        <v>19.3420705</v>
+      </c>
+      <c r="E42" s="0" t="str">
+        <v>192.168.100.19</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <v>51157774</v>
+      </c>
+      <c r="H42" s="0" t="str">
+        <v>36404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" customFormat="false">
+      <c r="A43" s="0" t="str">
+        <v>0005530315</v>
+      </c>
+      <c r="B43" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C43" s="0" t="str">
+        <v>06:59:08</v>
+      </c>
+      <c r="D43" s="0">
+        <v>19.1372569</v>
+      </c>
+      <c r="E43" s="0" t="str">
+        <v>192.168.0.139</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <v>SM-N975F</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <v>51157812</v>
+      </c>
+      <c r="H43" s="0" t="str">
+        <v>36405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" customFormat="false">
+      <c r="A44" s="0" t="str">
+        <v>0005537064</v>
+      </c>
+      <c r="B44" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C44" s="0" t="str">
+        <v>09:32:43</v>
+      </c>
+      <c r="D44" s="0">
+        <v>20.6708059</v>
+      </c>
+      <c r="E44" s="0" t="str">
+        <v>192.168.1.65</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <v>51157853</v>
+      </c>
+      <c r="H44" s="0" t="str">
+        <v>36406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" customFormat="false">
+      <c r="A45" s="0" t="str">
+        <v>0005536525</v>
+      </c>
+      <c r="B45" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C45" s="0" t="str">
+        <v>08:38:35</v>
+      </c>
+      <c r="D45" s="0">
+        <v>25.7571905</v>
+      </c>
+      <c r="E45" s="0" t="str">
+        <v>192.168.100.29</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <v>SM-G975U</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <v>51157454</v>
+      </c>
+      <c r="H45" s="0" t="str">
+        <v>36407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" customFormat="false">
+      <c r="A46" s="0" t="str">
+        <v>0005082043</v>
+      </c>
+      <c r="B46" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C46" s="0" t="str">
+        <v>09:49:31</v>
+      </c>
+      <c r="D46" s="0">
+        <v>19.4232155</v>
+      </c>
+      <c r="E46" s="0" t="str">
+        <v>10.131.253.137</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <v>51157462</v>
+      </c>
+      <c r="H46" s="0" t="str">
+        <v>36408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" customFormat="false">
+      <c r="A47" s="0" t="str">
+        <v>0004954289</v>
+      </c>
+      <c r="B47" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C47" s="0" t="str">
+        <v>06:12:57</v>
+      </c>
+      <c r="D47" s="0">
+        <v>17.06767</v>
+      </c>
+      <c r="E47" s="0" t="str">
+        <v>10.30.101.247</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <v>51158259</v>
+      </c>
+      <c r="H47" s="0" t="str">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" customFormat="false">
+      <c r="A48" s="0" t="str">
+        <v>0004316870</v>
+      </c>
+      <c r="B48" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C48" s="0" t="str">
+        <v>08:17:12</v>
+      </c>
+      <c r="D48" s="0">
+        <v>17.0601333</v>
+      </c>
+      <c r="E48" s="0" t="str">
+        <v>10.30.101.247</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <v>51158348</v>
+      </c>
+      <c r="H48" s="0" t="str">
+        <v>36410</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" customFormat="false">
+      <c r="A49" s="0" t="str">
+        <v>0005539138</v>
+      </c>
+      <c r="B49" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C49" s="0" t="str">
+        <v>08:33:52</v>
+      </c>
+      <c r="D49" s="0">
+        <v>25.8105342</v>
+      </c>
+      <c r="E49" s="0" t="str">
+        <v>192.168.100.74</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <v>moto g(60)</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <v>51158351</v>
+      </c>
+      <c r="H49" s="0" t="str">
+        <v>36411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" customFormat="false">
+      <c r="A50" s="0" t="str">
+        <v>0004957586</v>
+      </c>
+      <c r="B50" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C50" s="0" t="str">
+        <v>12:43:52</v>
+      </c>
+      <c r="D50" s="0">
+        <v>19.3890882</v>
+      </c>
+      <c r="E50" s="0" t="str">
+        <v>100.96.47.221</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <v>51158004</v>
+      </c>
+      <c r="H50" s="0" t="str">
+        <v>36412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" customFormat="false">
+      <c r="A51" s="0" t="str">
+        <v>0005538142</v>
+      </c>
+      <c r="B51" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C51" s="0" t="str">
+        <v>03:37:33</v>
+      </c>
+      <c r="D51" s="0">
+        <v>25.8106103</v>
+      </c>
+      <c r="E51" s="0" t="str">
+        <v>192.168.100.74</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <v>moto g(60)</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <v>51158113</v>
+      </c>
+      <c r="H51" s="0" t="str">
+        <v>36413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" customFormat="false">
+      <c r="A52" s="0" t="str">
+        <v>0005539673</v>
+      </c>
+      <c r="B52" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C52" s="0" t="str">
+        <v>07:09:23</v>
+      </c>
+      <c r="D52" s="0">
+        <v>25.757175</v>
+      </c>
+      <c r="E52" s="0" t="str">
+        <v>192.168.100.30</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <v>CPH2205</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <v>51158322</v>
+      </c>
+      <c r="H52" s="0" t="str">
+        <v>36414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" customFormat="false">
+      <c r="A53" s="0" t="str">
+        <v>0005537577</v>
+      </c>
+      <c r="B53" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C53" s="0" t="str">
+        <v>08:50:31</v>
+      </c>
+      <c r="D53" s="0">
+        <v>20.6707862</v>
+      </c>
+      <c r="E53" s="0" t="str">
+        <v>192.168.1.65</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <v>51158353</v>
+      </c>
+      <c r="H53" s="0" t="str">
+        <v>36415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" customFormat="false">
+      <c r="A54" s="0" t="str">
+        <v>0004977132</v>
+      </c>
+      <c r="B54" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C54" s="0" t="str">
+        <v>02:45:01</v>
+      </c>
+      <c r="D54" s="0">
+        <v>20.1160814</v>
+      </c>
+      <c r="E54" s="0" t="str">
+        <v>10.38.81.195</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <v>SM-A107M</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <v>51158088</v>
+      </c>
+      <c r="H54" s="0" t="str">
+        <v>36416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" customFormat="false">
+      <c r="A55" s="0" t="str">
+        <v>0004959083</v>
+      </c>
+      <c r="B55" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C55" s="0" t="str">
+        <v>03:23:17</v>
+      </c>
+      <c r="D55" s="0">
+        <v>28.6868645</v>
+      </c>
+      <c r="E55" s="0" t="str">
+        <v>10.94.148.173</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <v>51158110</v>
+      </c>
+      <c r="H55" s="0" t="str">
+        <v>36417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" customFormat="false">
+      <c r="A56" s="0" t="str">
+        <v>0005539064</v>
+      </c>
+      <c r="B56" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C56" s="0" t="str">
+        <v>01:57:10</v>
+      </c>
+      <c r="D56" s="0">
+        <v>19.2506761</v>
+      </c>
+      <c r="E56" s="0" t="str">
+        <v>10.95.175.93</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <v>SM-G9600</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <v>51158118</v>
+      </c>
+      <c r="H56" s="0" t="str">
+        <v>36418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" customFormat="false">
+      <c r="A57" s="0" t="str">
+        <v>0005536613</v>
+      </c>
+      <c r="B57" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C57" s="0" t="str">
+        <v>03:35:35</v>
+      </c>
+      <c r="D57" s="0">
+        <v>20.6888011</v>
+      </c>
+      <c r="E57" s="0" t="str">
+        <v>192.168.1.93</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <v>51158121</v>
+      </c>
+      <c r="H57" s="0" t="str">
+        <v>36419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" customFormat="false">
+      <c r="A58" s="0" t="str">
+        <v>0004962069</v>
+      </c>
+      <c r="B58" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C58" s="0" t="str">
+        <v>04:26:28</v>
+      </c>
+      <c r="D58" s="0">
+        <v>17.0580262</v>
+      </c>
+      <c r="E58" s="0" t="str">
+        <v>192.168.1.141</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <v>51158162</v>
+      </c>
+      <c r="H58" s="0" t="str">
+        <v>36420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" customFormat="false">
+      <c r="A59" s="0" t="str">
+        <v>0005538118</v>
+      </c>
+      <c r="B59" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C59" s="0" t="str">
+        <v>10:40:54</v>
+      </c>
+      <c r="D59" s="0">
+        <v>22.75799</v>
+      </c>
+      <c r="E59" s="0" t="str">
+        <v>192.168.238.24</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <v>SM-A325M</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <v>51158180</v>
+      </c>
+      <c r="H59" s="0" t="str">
+        <v>36421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" customFormat="false">
+      <c r="A60" s="0" t="str">
+        <v>0004979488</v>
+      </c>
+      <c r="B60" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C60" s="0" t="str">
+        <v>01:54:57</v>
+      </c>
+      <c r="D60" s="0">
+        <v>19.4869763</v>
+      </c>
+      <c r="E60" s="0" t="str">
+        <v>10.67.171.64</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <v>moto g(6) play</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <v>51158182</v>
+      </c>
+      <c r="H60" s="0" t="str">
+        <v>36422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" customFormat="false">
+      <c r="A61" s="0" t="str">
+        <v>0002934990</v>
+      </c>
+      <c r="B61" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C61" s="0" t="str">
+        <v>01:29:19</v>
+      </c>
+      <c r="D61" s="0">
+        <v>20.5531316</v>
+      </c>
+      <c r="E61" s="0" t="str">
+        <v>10.212.203.221</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <v>51158194</v>
+      </c>
+      <c r="H61" s="0" t="str">
+        <v>36423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" customFormat="false">
+      <c r="A62" s="0" t="str">
+        <v>0004953606</v>
+      </c>
+      <c r="B62" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C62" s="0" t="str">
+        <v>03:01:58</v>
+      </c>
+      <c r="D62" s="0">
+        <v>20.116095</v>
+      </c>
+      <c r="E62" s="0" t="str">
+        <v>10.186.45.88</v>
+      </c>
+      <c r="F62" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G62" s="0" t="str">
+        <v>51158195</v>
+      </c>
+      <c r="H62" s="0" t="str">
+        <v>36424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" customFormat="false">
+      <c r="A63" s="0" t="str">
+        <v>0005538556</v>
+      </c>
+      <c r="B63" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C63" s="0" t="str">
+        <v>07:16:54</v>
+      </c>
+      <c r="D63" s="0">
+        <v>20.670789</v>
+      </c>
+      <c r="E63" s="0" t="str">
+        <v>192.168.1.65</v>
+      </c>
+      <c r="F63" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G63" s="0" t="str">
+        <v>51158340</v>
+      </c>
+      <c r="H63" s="0" t="str">
+        <v>36425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" customFormat="false">
+      <c r="A64" s="0" t="str">
+        <v>0005528456</v>
+      </c>
+      <c r="B64" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C64" s="0" t="str">
+        <v>09:34:45</v>
+      </c>
+      <c r="D64" s="0">
+        <v>20.6800941</v>
+      </c>
+      <c r="E64" s="0" t="str">
+        <v>192.168.100.51</v>
+      </c>
+      <c r="F64" s="0" t="str">
+        <v>SM-G988B</v>
+      </c>
+      <c r="G64" s="0" t="str">
+        <v>51158367</v>
+      </c>
+      <c r="H64" s="0" t="str">
+        <v>36426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" customFormat="false">
+      <c r="A65" s="0" t="str">
+        <v>0005538159</v>
+      </c>
+      <c r="B65" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C65" s="0" t="str">
+        <v>05:42:18</v>
+      </c>
+      <c r="D65" s="0">
+        <v>24.0143881</v>
+      </c>
+      <c r="E65" s="0" t="str">
+        <v>192.168.0.16</v>
+      </c>
+      <c r="F65" s="0" t="str">
+        <v>SNE-LX3</v>
+      </c>
+      <c r="G65" s="0" t="str">
+        <v>51157917</v>
+      </c>
+      <c r="H65" s="0" t="str">
+        <v>36427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" customFormat="false">
+      <c r="A66" s="0" t="str">
+        <v>0002904647</v>
+      </c>
+      <c r="B66" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C66" s="0" t="str">
+        <v>09:22:47</v>
+      </c>
+      <c r="D66" s="0">
+        <v>29.0810427</v>
+      </c>
+      <c r="E66" s="0" t="str">
+        <v>10.45.74.45</v>
+      </c>
+      <c r="F66" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <v>51157933</v>
+      </c>
+      <c r="H66" s="0" t="str">
+        <v>36428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" customFormat="false">
+      <c r="A67" s="0" t="str">
+        <v>0004971455</v>
+      </c>
+      <c r="B67" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C67" s="0" t="str">
+        <v>10:31:47</v>
+      </c>
+      <c r="D67" s="0">
+        <v>20.58464</v>
+      </c>
+      <c r="E67" s="0" t="str">
+        <v>192.168.5.73</v>
+      </c>
+      <c r="F67" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G67" s="0" t="str">
+        <v>51158413</v>
+      </c>
+      <c r="H67" s="0" t="str">
+        <v>36429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" customFormat="false">
+      <c r="A68" s="0" t="str">
+        <v>0005538173</v>
+      </c>
+      <c r="B68" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C68" s="0" t="str">
+        <v>12:53:05</v>
+      </c>
+      <c r="D68" s="0">
+        <v>20.6888417</v>
+      </c>
+      <c r="E68" s="0" t="str">
+        <v>192.168.1.93</v>
+      </c>
+      <c r="F68" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G68" s="0" t="str">
+        <v>51158506</v>
+      </c>
+      <c r="H68" s="0" t="str">
+        <v>36430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" customFormat="false">
+      <c r="A69" s="0" t="str">
+        <v>0005540625</v>
+      </c>
+      <c r="B69" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C69" s="0" t="str">
+        <v>02:04:32</v>
+      </c>
+      <c r="D69" s="0">
+        <v>18.6485637</v>
+      </c>
+      <c r="E69" s="0" t="str">
+        <v>192.168.0.3</v>
+      </c>
+      <c r="F69" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G69" s="0" t="str">
+        <v>51158570</v>
+      </c>
+      <c r="H69" s="0" t="str">
+        <v>36431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" customFormat="false">
+      <c r="A70" s="0" t="str">
+        <v>0000458991</v>
+      </c>
+      <c r="B70" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C70" s="0" t="str">
+        <v>12:41:58</v>
+      </c>
+      <c r="D70" s="0">
+        <v>26.9028285</v>
+      </c>
+      <c r="E70" s="0" t="str">
+        <v>10.148.168.175</v>
+      </c>
+      <c r="F70" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G70" s="0" t="str">
+        <v>51158627</v>
+      </c>
+      <c r="H70" s="0" t="str">
+        <v>36432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" customFormat="false">
+      <c r="A71" s="0" t="str">
+        <v>0000505527</v>
+      </c>
+      <c r="B71" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C71" s="0" t="str">
+        <v>05:47:42</v>
+      </c>
+      <c r="D71" s="0">
+        <v>19.4270266</v>
+      </c>
+      <c r="E71" s="0" t="str">
+        <v>10.8.146.137</v>
+      </c>
+      <c r="F71" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G71" s="0" t="str">
+        <v>51158752</v>
+      </c>
+      <c r="H71" s="0" t="str">
+        <v>36433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" customFormat="false">
+      <c r="A72" s="0" t="str">
+        <v>0005538383</v>
+      </c>
+      <c r="B72" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C72" s="0" t="str">
+        <v>02:16:38</v>
+      </c>
+      <c r="D72" s="0">
+        <v>19.4851536</v>
+      </c>
+      <c r="E72" s="0" t="str">
+        <v>192.168.0.32</v>
+      </c>
+      <c r="F72" s="0" t="str">
+        <v>moto e(7i) power</v>
+      </c>
+      <c r="G72" s="0" t="str">
+        <v>51158840</v>
+      </c>
+      <c r="H72" s="0" t="str">
+        <v>36434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" customFormat="false">
+      <c r="A73" s="0" t="str">
+        <v>0002640135</v>
+      </c>
+      <c r="B73" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C73" s="0" t="str">
+        <v>02:32:40</v>
+      </c>
+      <c r="D73" s="0">
+        <v>25.8105381</v>
+      </c>
+      <c r="E73" s="0" t="str">
+        <v>192.168.100.74</v>
+      </c>
+      <c r="F73" s="0" t="str">
+        <v>moto g(60)</v>
+      </c>
+      <c r="G73" s="0" t="str">
+        <v>51158866</v>
+      </c>
+      <c r="H73" s="0" t="str">
+        <v>36435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" customFormat="false">
+      <c r="A74" s="0" t="str">
+        <v>0005539148</v>
+      </c>
+      <c r="B74" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C74" s="0" t="str">
+        <v>06:00:18</v>
+      </c>
+      <c r="D74" s="0">
+        <v>19.485176</v>
+      </c>
+      <c r="E74" s="0" t="str">
+        <v>192.168.0.32</v>
+      </c>
+      <c r="F74" s="0" t="str">
+        <v>moto e(7i) power</v>
+      </c>
+      <c r="G74" s="0" t="str">
+        <v>51158417</v>
+      </c>
+      <c r="H74" s="0" t="str">
+        <v>36436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" customFormat="false">
+      <c r="A75" s="0" t="str">
+        <v>0004979724</v>
+      </c>
+      <c r="B75" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C75" s="0" t="str">
+        <v>11:31:40</v>
+      </c>
+      <c r="D75" s="0">
+        <v>19.4270965</v>
+      </c>
+      <c r="E75" s="0" t="str">
+        <v>10.46.39.115</v>
+      </c>
+      <c r="F75" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G75" s="0" t="str">
+        <v>51158443</v>
+      </c>
+      <c r="H75" s="0" t="str">
+        <v>36437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" customFormat="false">
+      <c r="A76" s="0" t="str">
+        <v>0005538502</v>
+      </c>
+      <c r="B76" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C76" s="0" t="str">
+        <v>12:18:14</v>
+      </c>
+      <c r="D76" s="0">
+        <v>20.6887535</v>
+      </c>
+      <c r="E76" s="0" t="str">
+        <v>192.168.1.93</v>
+      </c>
+      <c r="F76" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G76" s="0" t="str">
+        <v>51158472</v>
+      </c>
+      <c r="H76" s="0" t="str">
+        <v>36438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" customFormat="false">
+      <c r="A77" s="0" t="str">
+        <v>0005540621</v>
+      </c>
+      <c r="B77" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C77" s="0" t="str">
+        <v>12:51:04</v>
+      </c>
+      <c r="D77" s="0">
+        <v>21.1024845</v>
+      </c>
+      <c r="E77" s="0" t="str">
+        <v>10.113.0.87</v>
+      </c>
+      <c r="F77" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G77" s="0" t="str">
+        <v>51158498</v>
+      </c>
+      <c r="H77" s="0" t="str">
+        <v>36439</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" customFormat="false">
+      <c r="A78" s="0" t="str">
+        <v>0005148582</v>
+      </c>
+      <c r="B78" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C78" s="0" t="str">
+        <v>01:02:02</v>
+      </c>
+      <c r="D78" s="0">
+        <v>25.6738674</v>
+      </c>
+      <c r="E78" s="0" t="str">
+        <v>192.168.142.75</v>
+      </c>
+      <c r="F78" s="0" t="str">
+        <v>moto g(9) plus</v>
+      </c>
+      <c r="G78" s="0" t="str">
+        <v>51158508</v>
+      </c>
+      <c r="H78" s="0" t="str">
+        <v>36440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" customFormat="false">
+      <c r="A79" s="0" t="str">
+        <v>0004971960</v>
+      </c>
+      <c r="B79" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C79" s="0" t="str">
+        <v>01:56:13</v>
+      </c>
+      <c r="D79" s="0">
+        <v>19.4270205</v>
+      </c>
+      <c r="E79" s="0" t="str">
+        <v>10.52.136.39</v>
+      </c>
+      <c r="F79" s="0" t="str">
+        <v>moto g(8)</v>
+      </c>
+      <c r="G79" s="0" t="str">
+        <v>51158565</v>
+      </c>
+      <c r="H79" s="0" t="str">
+        <v>36441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" customFormat="false">
+      <c r="A80" s="0" t="str">
+        <v>0005538980</v>
+      </c>
+      <c r="B80" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C80" s="0" t="str">
+        <v>03:51:26</v>
+      </c>
+      <c r="D80" s="0">
+        <v>19.1871611</v>
+      </c>
+      <c r="E80" s="0" t="str">
+        <v>192.168.0.8</v>
+      </c>
+      <c r="F80" s="0" t="str">
+        <v>moto e5 plus</v>
+      </c>
+      <c r="G80" s="0" t="str">
+        <v>51158612</v>
+      </c>
+      <c r="H80" s="0" t="str">
+        <v>36442</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" customFormat="false">
+      <c r="A81" s="0" t="str">
+        <v>0002041757</v>
+      </c>
+      <c r="B81" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C81" s="0" t="str">
+        <v>01:03:55</v>
+      </c>
+      <c r="D81" s="0">
+        <v>32.6084042</v>
+      </c>
+      <c r="E81" s="0" t="str">
+        <v>10.107.24.114</v>
+      </c>
+      <c r="F81" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G81" s="0" t="str">
+        <v>51158618</v>
+      </c>
+      <c r="H81" s="0" t="str">
+        <v>36443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" customFormat="false">
+      <c r="A82" s="0" t="str">
+        <v>0004626658</v>
+      </c>
+      <c r="B82" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C82" s="0" t="str">
+        <v>04:00:04</v>
+      </c>
+      <c r="D82" s="0">
+        <v>19.1605794</v>
+      </c>
+      <c r="E82" s="0" t="str">
+        <v>10.234.102.221</v>
+      </c>
+      <c r="F82" s="0" t="str">
+        <v>SM-N975F</v>
+      </c>
+      <c r="G82" s="0" t="str">
+        <v>51158659</v>
+      </c>
+      <c r="H82" s="0" t="str">
+        <v>36444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" customFormat="false">
+      <c r="A83" s="0" t="str">
+        <v>0002789705</v>
+      </c>
+      <c r="B83" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C83" s="0" t="str">
+        <v>03:46:25</v>
+      </c>
+      <c r="D83" s="0">
+        <v>19.3422435</v>
+      </c>
+      <c r="E83" s="0" t="str">
+        <v>192.168.100.19</v>
+      </c>
+      <c r="F83" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G83" s="0" t="str">
+        <v>51158667</v>
+      </c>
+      <c r="H83" s="0" t="str">
+        <v>36445</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" customFormat="false">
+      <c r="A84" s="0" t="str">
+        <v>0004418486</v>
+      </c>
+      <c r="B84" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C84" s="0" t="str">
+        <v>09:55:21</v>
+      </c>
+      <c r="D84" s="0">
+        <v>21.1353204</v>
+      </c>
+      <c r="E84" s="0" t="str">
+        <v>10.205.197.100</v>
+      </c>
+      <c r="F84" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G84" s="0" t="str">
+        <v>51158686</v>
+      </c>
+      <c r="H84" s="0" t="str">
+        <v>36446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" customFormat="false">
+      <c r="A85" s="0" t="str">
+        <v>0005411331</v>
+      </c>
+      <c r="B85" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C85" s="0" t="str">
+        <v>05:25:25</v>
+      </c>
+      <c r="D85" s="0">
+        <v>26.9312333</v>
+      </c>
+      <c r="E85" s="0" t="str">
+        <v>192.168.0.3</v>
+      </c>
+      <c r="F85" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <v>51158732</v>
+      </c>
+      <c r="H85" s="0" t="str">
+        <v>36447</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" customFormat="false">
+      <c r="A86" s="0" t="str">
+        <v>0005541505</v>
+      </c>
+      <c r="B86" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C86" s="0" t="str">
+        <v>07:14:35</v>
+      </c>
+      <c r="D86" s="0">
+        <v>19.4851642</v>
+      </c>
+      <c r="E86" s="0" t="str">
+        <v>192.168.0.32</v>
+      </c>
+      <c r="F86" s="0" t="str">
+        <v>moto e(7i) power</v>
+      </c>
+      <c r="G86" s="0" t="str">
+        <v>51158831</v>
+      </c>
+      <c r="H86" s="0" t="str">
+        <v>36448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" customFormat="false">
+      <c r="A87" s="0" t="str">
+        <v>0005541207</v>
+      </c>
+      <c r="B87" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C87" s="0" t="str">
+        <v>08:14:36</v>
+      </c>
+      <c r="D87" s="0">
+        <v>20.6707865</v>
+      </c>
+      <c r="E87" s="0" t="str">
+        <v>192.168.1.65</v>
+      </c>
+      <c r="F87" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G87" s="0" t="str">
+        <v>51158859</v>
+      </c>
+      <c r="H87" s="0" t="str">
+        <v>36449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" customFormat="false">
+      <c r="A88" s="0" t="str">
+        <v>0005539708</v>
+      </c>
+      <c r="B88" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C88" s="0" t="str">
+        <v>08:59:06</v>
+      </c>
+      <c r="D88" s="0">
+        <v>26.893216</v>
+      </c>
+      <c r="E88" s="0" t="str">
+        <v>10.0.0.19</v>
+      </c>
+      <c r="F88" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G88" s="0" t="str">
+        <v>51158875</v>
+      </c>
+      <c r="H88" s="0" t="str">
+        <v>36450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" customFormat="false">
+      <c r="A89" s="0" t="str">
+        <v>0004783469</v>
+      </c>
+      <c r="B89" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C89" s="0" t="str">
+        <v>03:42:16</v>
+      </c>
+      <c r="D89" s="0">
+        <v>20.584605</v>
+      </c>
+      <c r="E89" s="0" t="str">
+        <v>192.168.5.73</v>
+      </c>
+      <c r="F89" s="0" t="str">
+        <v>SM-J415G</v>
+      </c>
+      <c r="G89" s="0" t="str">
+        <v>51158387</v>
+      </c>
+      <c r="H89" s="0" t="str">
+        <v>36451</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" customFormat="false">
+      <c r="A90" s="0" t="str">
+        <v>0005539019</v>
+      </c>
+      <c r="B90" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C90" s="0" t="str">
+        <v>04:19:10</v>
+      </c>
+      <c r="D90" s="0">
+        <v>25.7548905</v>
+      </c>
+      <c r="E90" s="0" t="str">
+        <v>192.168.1.65</v>
+      </c>
+      <c r="F90" s="0" t="str">
+        <v>motorola one vision</v>
+      </c>
+      <c r="G90" s="0" t="str">
+        <v>51158393</v>
+      </c>
+      <c r="H90" s="0" t="str">
+        <v>36452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" customFormat="false">
+      <c r="A91" s="0" t="str">
+        <v>0005102733</v>
+      </c>
+      <c r="B91" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C91" s="0" t="str">
+        <v>10:06:05</v>
+      </c>
+      <c r="D91" s="0">
+        <v>19.389285</v>
+      </c>
+      <c r="E91" s="0" t="str">
+        <v>10.43.106.127</v>
+      </c>
+      <c r="F91" s="0" t="str">
+        <v>21061119AL</v>
+      </c>
+      <c r="G91" s="0" t="str">
+        <v>51158400</v>
+      </c>
+      <c r="H91" s="0" t="str">
+        <v>36453</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" customFormat="false">
+      <c r="A92" s="0" t="str">
+        <v>0005539698</v>
+      </c>
+      <c r="B92" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C92" s="0" t="str">
+        <v>09:57:23</v>
+      </c>
+      <c r="D92" s="0">
+        <v>20.6886908</v>
+      </c>
+      <c r="E92" s="0" t="str">
+        <v>192.168.1.93</v>
+      </c>
+      <c r="F92" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G92" s="0" t="str">
+        <v>51158404</v>
+      </c>
+      <c r="H92" s="0" t="str">
+        <v>36454</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" customFormat="false">
+      <c r="A93" s="0" t="str">
+        <v>0004666042</v>
+      </c>
+      <c r="B93" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C93" s="0" t="str">
+        <v>11:18:34</v>
+      </c>
+      <c r="D93" s="0">
+        <v>25.6738328</v>
+      </c>
+      <c r="E93" s="0" t="str">
+        <v>192.168.1.69</v>
+      </c>
+      <c r="F93" s="0" t="str">
+        <v>SM-A715F</v>
+      </c>
+      <c r="G93" s="0" t="str">
+        <v>51158433</v>
+      </c>
+      <c r="H93" s="0" t="str">
+        <v>36455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" customFormat="false">
+      <c r="A94" s="0" t="str">
+        <v>0005515606</v>
+      </c>
+      <c r="B94" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C94" s="0" t="str">
+        <v>05:43:30</v>
+      </c>
+      <c r="D94" s="0">
+        <v>19.3942409</v>
+      </c>
+      <c r="E94" s="0" t="str">
+        <v>192.168.8.27</v>
+      </c>
+      <c r="F94" s="0" t="str">
+        <v>moto e5 plus</v>
+      </c>
+      <c r="G94" s="0" t="str">
+        <v>51159283</v>
+      </c>
+      <c r="H94" s="0" t="str">
+        <v>36456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" customFormat="false">
+      <c r="A95" s="0" t="str">
+        <v>0005542539</v>
+      </c>
+      <c r="B95" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C95" s="0" t="str">
+        <v>01:19:54</v>
+      </c>
+      <c r="D95" s="0">
+        <v>20.6603484</v>
+      </c>
+      <c r="E95" s="0" t="str">
+        <v>10.144.227.223</v>
+      </c>
+      <c r="F95" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G95" s="0" t="str">
+        <v>51159041</v>
+      </c>
+      <c r="H95" s="0" t="str">
+        <v>36457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" customFormat="false">
+      <c r="A96" s="0" t="str">
+        <v>0005518580</v>
+      </c>
+      <c r="B96" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C96" s="0" t="str">
+        <v>04:03:39</v>
+      </c>
+      <c r="D96" s="0">
+        <v>19.4851908</v>
+      </c>
+      <c r="E96" s="0" t="str">
+        <v>192.168.0.32</v>
+      </c>
+      <c r="F96" s="0" t="str">
+        <v>moto e(7i) power</v>
+      </c>
+      <c r="G96" s="0" t="str">
+        <v>51159193</v>
+      </c>
+      <c r="H96" s="0" t="str">
+        <v>36458</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" customFormat="false">
+      <c r="A97" s="0" t="str">
+        <v>0005543069</v>
+      </c>
+      <c r="B97" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C97" s="0" t="str">
+        <v>03:35:31</v>
+      </c>
+      <c r="D97" s="0">
+        <v>31.6823266</v>
+      </c>
+      <c r="E97" s="0" t="str">
+        <v>10.9.235.133</v>
+      </c>
+      <c r="F97" s="0" t="str">
+        <v>Redmi Note 7</v>
+      </c>
+      <c r="G97" s="0" t="str">
+        <v>51159237</v>
+      </c>
+      <c r="H97" s="0" t="str">
+        <v>36459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" customFormat="false">
+      <c r="A98" s="0" t="str">
+        <v>0005315474</v>
+      </c>
+      <c r="B98" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C98" s="0" t="str">
+        <v>04:23:04</v>
+      </c>
+      <c r="D98" s="0">
+        <v>19.4274333</v>
+      </c>
+      <c r="E98" s="0" t="str">
+        <v>7.21.229.163</v>
+      </c>
+      <c r="F98" s="0" t="str">
+        <v>SM-A325M</v>
+      </c>
+      <c r="G98" s="0" t="str">
+        <v>51159307</v>
+      </c>
+      <c r="H98" s="0" t="str">
+        <v>36460</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" customFormat="false">
+      <c r="A99" s="0" t="str">
+        <v>0000253423</v>
+      </c>
+      <c r="B99" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C99" s="0" t="str">
+        <v>07:55:22</v>
+      </c>
+      <c r="D99" s="0">
+        <v>18.9235212</v>
+      </c>
+      <c r="E99" s="0" t="str">
+        <v>10.126.110.150</v>
+      </c>
+      <c r="F99" s="0" t="str">
+        <v>moto g(7) plus</v>
+      </c>
+      <c r="G99" s="0" t="str">
+        <v>51159406</v>
+      </c>
+      <c r="H99" s="0" t="str">
+        <v>36461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" customFormat="false">
+      <c r="A100" s="0" t="str">
+        <v>0004956139</v>
+      </c>
+      <c r="B100" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C100" s="0" t="str">
+        <v>12:48:27</v>
+      </c>
+      <c r="D100" s="0">
+        <v>19.4269344</v>
+      </c>
+      <c r="E100" s="0" t="str">
+        <v>10.45.254.198</v>
+      </c>
+      <c r="F100" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G100" s="0" t="str">
+        <v>51159012</v>
+      </c>
+      <c r="H100" s="0" t="str">
+        <v>36462</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" customFormat="false">
+      <c r="A101" s="0" t="str">
+        <v>0005540992</v>
+      </c>
+      <c r="B101" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C101" s="0" t="str">
+        <v>10:38:21</v>
+      </c>
+      <c r="D101" s="0">
+        <v>19.485178</v>
+      </c>
+      <c r="E101" s="0" t="str">
+        <v>192.168.0.32</v>
+      </c>
+      <c r="F101" s="0" t="str">
+        <v>moto e(7i) power</v>
+      </c>
+      <c r="G101" s="0" t="str">
+        <v>51158933</v>
+      </c>
+      <c r="H101" s="0" t="str">
+        <v>36463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" customFormat="false">
+      <c r="A102" s="0" t="str">
+        <v>0005540510</v>
+      </c>
+      <c r="B102" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C102" s="0" t="str">
+        <v>11:04:07</v>
+      </c>
+      <c r="D102" s="0">
+        <v>19.4851836</v>
+      </c>
+      <c r="E102" s="0" t="str">
+        <v>192.168.0.32</v>
+      </c>
+      <c r="F102" s="0" t="str">
+        <v>moto e(7i) power</v>
+      </c>
+      <c r="G102" s="0" t="str">
+        <v>51158944</v>
+      </c>
+      <c r="H102" s="0" t="str">
+        <v>36464</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" customFormat="false">
+      <c r="A103" s="0" t="str">
+        <v>0005542262</v>
+      </c>
+      <c r="B103" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C103" s="0" t="str">
+        <v>12:01:00</v>
+      </c>
+      <c r="D103" s="0">
+        <v>26.9028191</v>
+      </c>
+      <c r="E103" s="0" t="str">
+        <v>10.194.213.122</v>
+      </c>
+      <c r="F103" s="0" t="str">
+        <v>moto g(60)</v>
+      </c>
+      <c r="G103" s="0" t="str">
+        <v>51158973</v>
+      </c>
+      <c r="H103" s="0" t="str">
+        <v>36465</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" customFormat="false">
+      <c r="A104" s="0" t="str">
+        <v>0000203471</v>
+      </c>
+      <c r="B104" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C104" s="0" t="str">
+        <v>12:04:05</v>
+      </c>
+      <c r="D104" s="0">
+        <v>23.9834413</v>
+      </c>
+      <c r="E104" s="0" t="str">
+        <v>192.168.0.164</v>
+      </c>
+      <c r="F104" s="0" t="str">
+        <v>motorola one action</v>
+      </c>
+      <c r="G104" s="0" t="str">
+        <v>51158985</v>
+      </c>
+      <c r="H104" s="0" t="str">
+        <v>36466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" customFormat="false">
+      <c r="A105" s="0" t="str">
+        <v>0005542524</v>
+      </c>
+      <c r="B105" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C105" s="0" t="str">
+        <v>12:05:16</v>
+      </c>
+      <c r="D105" s="0">
+        <v>20.7010617</v>
+      </c>
+      <c r="E105" s="0" t="str">
+        <v>192.168.30.23</v>
+      </c>
+      <c r="F105" s="0" t="str">
+        <v>moto e(7)</v>
+      </c>
+      <c r="G105" s="0" t="str">
+        <v>51158990</v>
+      </c>
+      <c r="H105" s="0" t="str">
+        <v>36467</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" customFormat="false">
+      <c r="A106" s="0" t="str">
+        <v>0004975239</v>
+      </c>
+      <c r="B106" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C106" s="0" t="str">
+        <v>12:46:57</v>
+      </c>
+      <c r="D106" s="0">
+        <v>19.3509583</v>
+      </c>
+      <c r="E106" s="0" t="str">
+        <v>100.121.35.33</v>
+      </c>
+      <c r="F106" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G106" s="0" t="str">
+        <v>51159023</v>
+      </c>
+      <c r="H106" s="0" t="str">
+        <v>36468</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" customFormat="false">
+      <c r="A107" s="0" t="str">
+        <v>0004804612</v>
+      </c>
+      <c r="B107" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C107" s="0" t="str">
+        <v>05:35:01</v>
+      </c>
+      <c r="D107" s="0">
+        <v>25.7571689</v>
+      </c>
+      <c r="E107" s="0" t="str">
+        <v>192.168.100.29</v>
+      </c>
+      <c r="F107" s="0" t="str">
+        <v>SM-G975U</v>
+      </c>
+      <c r="G107" s="0" t="str">
+        <v>51159087</v>
+      </c>
+      <c r="H107" s="0" t="str">
+        <v>36469</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" customFormat="false">
+      <c r="A108" s="0" t="str">
+        <v>0004963086</v>
+      </c>
+      <c r="B108" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C108" s="0" t="str">
+        <v>01:15:20</v>
+      </c>
+      <c r="D108" s="0">
+        <v>19.3911664</v>
+      </c>
+      <c r="E108" s="0" t="str">
+        <v>10.118.213.83</v>
+      </c>
+      <c r="F108" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G108" s="0" t="str">
+        <v>51159099</v>
+      </c>
+      <c r="H108" s="0" t="str">
+        <v>36470</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" customFormat="false">
+      <c r="A109" s="0" t="str">
+        <v>0005515153</v>
+      </c>
+      <c r="B109" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C109" s="0" t="str">
+        <v>02:25:17</v>
+      </c>
+      <c r="D109" s="0">
+        <v>26.9024244</v>
+      </c>
+      <c r="E109" s="0" t="str">
+        <v>10.67.25.151</v>
+      </c>
+      <c r="F109" s="0" t="str">
+        <v>V2057</v>
+      </c>
+      <c r="G109" s="0" t="str">
+        <v>51159124</v>
+      </c>
+      <c r="H109" s="0" t="str">
+        <v>36471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" customFormat="false">
+      <c r="A110" s="0" t="str">
+        <v>0005541817</v>
+      </c>
+      <c r="B110" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C110" s="0" t="str">
+        <v>12:40:30</v>
+      </c>
+      <c r="D110" s="0">
+        <v>32.6086249</v>
+      </c>
+      <c r="E110" s="0" t="str">
+        <v>10.11.68.112</v>
+      </c>
+      <c r="F110" s="0" t="str">
+        <v>SM-A505U</v>
+      </c>
+      <c r="G110" s="0" t="str">
+        <v>51159133</v>
+      </c>
+      <c r="H110" s="0" t="str">
+        <v>36472</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" customFormat="false">
+      <c r="A111" s="0" t="str">
+        <v>0004975470</v>
+      </c>
+      <c r="B111" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C111" s="0" t="str">
+        <v>03:27:00</v>
+      </c>
+      <c r="D111" s="0">
+        <v>20.1161357</v>
+      </c>
+      <c r="E111" s="0" t="str">
+        <v>10.106.250.88</v>
+      </c>
+      <c r="F111" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G111" s="0" t="str">
+        <v>51159190</v>
+      </c>
+      <c r="H111" s="0" t="str">
+        <v>36473</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" customFormat="false">
+      <c r="A112" s="0" t="str">
+        <v>0005543248</v>
+      </c>
+      <c r="B112" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C112" s="0" t="str">
+        <v>04:38:59</v>
+      </c>
+      <c r="D112" s="0">
+        <v>20.6800884</v>
+      </c>
+      <c r="E112" s="0" t="str">
+        <v>192.168.100.51</v>
+      </c>
+      <c r="F112" s="0" t="str">
+        <v>SM-G988B</v>
+      </c>
+      <c r="G112" s="0" t="str">
+        <v>51159222</v>
+      </c>
+      <c r="H112" s="0" t="str">
+        <v>36474</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" customFormat="false">
+      <c r="A113" s="0" t="str">
+        <v>0005543195</v>
+      </c>
+      <c r="B113" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C113" s="0" t="str">
+        <v>04:59:55</v>
+      </c>
+      <c r="D113" s="0">
+        <v>20.5461412</v>
+      </c>
+      <c r="E113" s="0" t="str">
+        <v>10.144.227.223</v>
+      </c>
+      <c r="F113" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G113" s="0" t="str">
+        <v>51159245</v>
+      </c>
+      <c r="H113" s="0" t="str">
+        <v>36475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" customFormat="false">
+      <c r="A114" s="0" t="str">
+        <v>0004318363</v>
+      </c>
+      <c r="B114" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C114" s="0" t="str">
+        <v>04:51:13</v>
+      </c>
+      <c r="D114" s="0">
+        <v>26.865245</v>
+      </c>
+      <c r="E114" s="0" t="str">
+        <v>10.89.30.95</v>
+      </c>
+      <c r="F114" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G114" s="0" t="str">
+        <v>51159330</v>
+      </c>
+      <c r="H114" s="0" t="str">
+        <v>36476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" customFormat="false">
+      <c r="A115" s="0" t="str">
+        <v>0004832754</v>
+      </c>
+      <c r="B115" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C115" s="0" t="str">
+        <v>06:39:01</v>
+      </c>
+      <c r="D115" s="0">
+        <v>19.4462094</v>
+      </c>
+      <c r="E115" s="0" t="str">
+        <v>192.168.43.7</v>
+      </c>
+      <c r="F115" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G115" s="0" t="str">
+        <v>51159339</v>
+      </c>
+      <c r="H115" s="0" t="str">
+        <v>36477</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" customFormat="false">
+      <c r="A116" s="0" t="str">
+        <v>0004865780</v>
+      </c>
+      <c r="B116" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C116" s="0" t="str">
+        <v>11:58:00</v>
+      </c>
+      <c r="D116" s="0">
+        <v>19.3420431</v>
+      </c>
+      <c r="E116" s="0" t="str">
+        <v>192.168.100.26</v>
+      </c>
+      <c r="F116" s="0" t="str">
+        <v>5002A</v>
+      </c>
+      <c r="G116" s="0" t="str">
+        <v>51159349</v>
+      </c>
+      <c r="H116" s="0" t="str">
+        <v>36478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" customFormat="false">
+      <c r="A117" s="0" t="str">
+        <v>0004149757</v>
+      </c>
+      <c r="B117" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C117" s="0" t="str">
+        <v>06:09:16</v>
+      </c>
+      <c r="D117" s="0">
+        <v>20.6800253</v>
+      </c>
+      <c r="E117" s="0" t="str">
+        <v>192.168.100.51</v>
+      </c>
+      <c r="F117" s="0" t="str">
+        <v>SM-G988B</v>
+      </c>
+      <c r="G117" s="0" t="str">
+        <v>51159387</v>
+      </c>
+      <c r="H117" s="0" t="str">
+        <v>36479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" customFormat="false">
+      <c r="A118" s="0" t="str">
+        <v>0003034376</v>
+      </c>
+      <c r="B118" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C118" s="0" t="str">
+        <v>09:48:41</v>
+      </c>
+      <c r="D118" s="0">
+        <v>19.4389466</v>
+      </c>
+      <c r="E118" s="0" t="str">
+        <v>192.168.100.2</v>
+      </c>
+      <c r="F118" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G118" s="0" t="str">
+        <v>51159397</v>
+      </c>
+      <c r="H118" s="0" t="str">
+        <v>36480</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" customFormat="false">
+      <c r="A119" s="0" t="str">
+        <v>0004971288</v>
+      </c>
+      <c r="B119" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C119" s="0" t="str">
+        <v>08:36:24</v>
+      </c>
+      <c r="D119" s="0">
+        <v>23.227348</v>
+      </c>
+      <c r="E119" s="0" t="str">
+        <v>10.46.59.92</v>
+      </c>
+      <c r="F119" s="0" t="str">
+        <v>M2103K19G</v>
+      </c>
+      <c r="G119" s="0" t="str">
+        <v>51159418</v>
+      </c>
+      <c r="H119" s="0" t="str">
+        <v>36481</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" customFormat="false">
+      <c r="A120" s="0" t="str">
+        <v>0005540364</v>
+      </c>
+      <c r="B120" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C120" s="0" t="str">
+        <v>10:18:40</v>
+      </c>
+      <c r="D120" s="0">
+        <v>19.3420099</v>
+      </c>
+      <c r="E120" s="0" t="str">
+        <v>192.168.100.19</v>
+      </c>
+      <c r="F120" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G120" s="0" t="str">
+        <v>51158920</v>
+      </c>
+      <c r="H120" s="0" t="str">
+        <v>36482</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" customFormat="false">
+      <c r="A121" s="0" t="str">
+        <v>0005542389</v>
+      </c>
+      <c r="B121" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C121" s="0" t="str">
+        <v>12:14:27</v>
+      </c>
+      <c r="D121" s="0">
+        <v>25.7548944</v>
+      </c>
+      <c r="E121" s="0" t="str">
+        <v>192.168.1.65</v>
+      </c>
+      <c r="F121" s="0" t="str">
+        <v>motorola one vision</v>
+      </c>
+      <c r="G121" s="0" t="str">
+        <v>51158978</v>
+      </c>
+      <c r="H121" s="0" t="str">
+        <v>36483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" customFormat="false">
+      <c r="A122" s="0" t="str">
+        <v>0004959103</v>
+      </c>
+      <c r="B122" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C122" s="0" t="str">
+        <v>11:58:41</v>
+      </c>
+      <c r="D122" s="0">
+        <v>19.4027667</v>
+      </c>
+      <c r="E122" s="0" t="str">
+        <v>10.48.37.48</v>
+      </c>
+      <c r="F122" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G122" s="0" t="str">
+        <v>51158983</v>
+      </c>
+      <c r="H122" s="0" t="str">
+        <v>36484</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" customFormat="false">
+      <c r="A123" s="0" t="str">
+        <v>0005542412</v>
+      </c>
+      <c r="B123" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C123" s="0" t="str">
+        <v>12:09:53</v>
+      </c>
+      <c r="D123" s="0">
+        <v>19.4369828</v>
+      </c>
+      <c r="E123" s="0" t="str">
+        <v>10.69.211.222</v>
+      </c>
+      <c r="F123" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G123" s="0" t="str">
+        <v>51158994</v>
+      </c>
+      <c r="H123" s="0" t="str">
+        <v>36485</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" customFormat="false">
+      <c r="A124" s="0" t="str">
+        <v>0005489930</v>
+      </c>
+      <c r="B124" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C124" s="0" t="str">
+        <v>01:46:37</v>
+      </c>
+      <c r="D124" s="0">
+        <v>20.6801317</v>
+      </c>
+      <c r="E124" s="0" t="str">
+        <v>192.168.100.51</v>
+      </c>
+      <c r="F124" s="0" t="str">
+        <v>SM-G988B</v>
+      </c>
+      <c r="G124" s="0" t="str">
+        <v>51159065</v>
+      </c>
+      <c r="H124" s="0" t="str">
+        <v>36486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" customFormat="false">
+      <c r="A125" s="0" t="str">
+        <v>0004955216</v>
+      </c>
+      <c r="B125" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C125" s="0" t="str">
+        <v>02:02:06</v>
+      </c>
+      <c r="D125" s="0">
+        <v>28.6868604</v>
+      </c>
+      <c r="E125" s="0" t="str">
+        <v>10.19.62.94</v>
+      </c>
+      <c r="F125" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G125" s="0" t="str">
+        <v>51159103</v>
+      </c>
+      <c r="H125" s="0" t="str">
+        <v>36487</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" customFormat="false">
+      <c r="A126" s="0" t="str">
+        <v>0005542915</v>
+      </c>
+      <c r="B126" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C126" s="0" t="str">
+        <v>02:39:54</v>
+      </c>
+      <c r="D126" s="0">
+        <v>20.6800419</v>
+      </c>
+      <c r="E126" s="0" t="str">
+        <v>192.168.100.51</v>
+      </c>
+      <c r="F126" s="0" t="str">
+        <v>SM-G988B</v>
+      </c>
+      <c r="G126" s="0" t="str">
+        <v>51159125</v>
+      </c>
+      <c r="H126" s="0" t="str">
+        <v>36488</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" customFormat="false">
+      <c r="A127" s="0" t="str">
+        <v>0005542483</v>
+      </c>
+      <c r="B127" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C127" s="0" t="str">
+        <v>03:45:07</v>
+      </c>
+      <c r="D127" s="0">
+        <v>19.4271718</v>
+      </c>
+      <c r="E127" s="0" t="str">
+        <v>10.65.247.87</v>
+      </c>
+      <c r="F127" s="0" t="str">
+        <v>V2058</v>
+      </c>
+      <c r="G127" s="0" t="str">
+        <v>51159176</v>
+      </c>
+      <c r="H127" s="0" t="str">
+        <v>36489</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" customFormat="false">
+      <c r="A128" s="0" t="str">
+        <v>0005542935</v>
+      </c>
+      <c r="B128" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C128" s="0" t="str">
+        <v>04:28:44</v>
+      </c>
+      <c r="D128" s="0">
+        <v>19.4149699</v>
+      </c>
+      <c r="E128" s="0" t="str">
+        <v>10.28.197.26</v>
+      </c>
+      <c r="F128" s="0" t="str">
+        <v>SM-A725M</v>
+      </c>
+      <c r="G128" s="0" t="str">
+        <v>51159205</v>
+      </c>
+      <c r="H128" s="0" t="str">
+        <v>36490</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" customFormat="false">
+      <c r="A129" s="0" t="str">
+        <v>0002502329</v>
+      </c>
+      <c r="B129" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C129" s="0" t="str">
+        <v>04:50:18</v>
+      </c>
+      <c r="D129" s="0">
+        <v>26.8955261</v>
+      </c>
+      <c r="E129" s="0" t="str">
+        <v>10.237.157.162</v>
+      </c>
+      <c r="F129" s="0" t="str">
+        <v>SM-A515F</v>
+      </c>
+      <c r="G129" s="0" t="str">
+        <v>51159465</v>
+      </c>
+      <c r="H129" s="0" t="str">
+        <v>36491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" customFormat="false">
+      <c r="A130" s="0" t="str">
+        <v>0005544383</v>
+      </c>
+      <c r="B130" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C130" s="0" t="str">
+        <v>02:22:47</v>
+      </c>
+      <c r="D130" s="0">
+        <v>25.681431</v>
+      </c>
+      <c r="E130" s="0" t="str">
+        <v>10.171.27.184</v>
+      </c>
+      <c r="F130" s="0" t="str">
+        <v>SM-G975U</v>
+      </c>
+      <c r="G130" s="0" t="str">
+        <v>51159658</v>
+      </c>
+      <c r="H130" s="0" t="str">
+        <v>36492</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" customFormat="false">
+      <c r="A131" s="0" t="str">
+        <v>0004968290</v>
+      </c>
+      <c r="B131" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C131" s="0" t="str">
+        <v>02:28:19</v>
+      </c>
+      <c r="D131" s="0">
+        <v>23.2059508</v>
+      </c>
+      <c r="E131" s="0" t="str">
+        <v>10.124.249.193</v>
+      </c>
+      <c r="F131" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G131" s="0" t="str">
+        <v>51159710</v>
+      </c>
+      <c r="H131" s="0" t="str">
+        <v>36493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" customFormat="false">
+      <c r="A132" s="0" t="str">
+        <v>0005536649</v>
+      </c>
+      <c r="B132" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C132" s="0" t="str">
+        <v>11:48:04</v>
+      </c>
+      <c r="D132" s="0">
+        <v>25.8105533</v>
+      </c>
+      <c r="E132" s="0" t="str">
+        <v>192.168.100.74</v>
+      </c>
+      <c r="F132" s="0" t="str">
+        <v>moto g(60)</v>
+      </c>
+      <c r="G132" s="0" t="str">
+        <v>51159472</v>
+      </c>
+      <c r="H132" s="0" t="str">
+        <v>36494</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" customFormat="false">
+      <c r="A133" s="0" t="str">
+        <v>0005517175</v>
+      </c>
+      <c r="B133" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C133" s="0" t="str">
+        <v>11:32:35</v>
+      </c>
+      <c r="D133" s="0">
+        <v>25.8105382</v>
+      </c>
+      <c r="E133" s="0" t="str">
+        <v>192.168.100.74</v>
+      </c>
+      <c r="F133" s="0" t="str">
+        <v>moto g(60)</v>
+      </c>
+      <c r="G133" s="0" t="str">
+        <v>51159617</v>
+      </c>
+      <c r="H133" s="0" t="str">
+        <v>36495</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" customFormat="false">
+      <c r="A134" s="0" t="str">
+        <v>0005530341</v>
+      </c>
+      <c r="B134" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C134" s="0" t="str">
+        <v>10:26:29</v>
+      </c>
+      <c r="D134" s="0">
+        <v>19.3420892</v>
+      </c>
+      <c r="E134" s="0" t="str">
+        <v>192.168.100.19</v>
+      </c>
+      <c r="F134" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G134" s="0" t="str">
+        <v>51159667</v>
+      </c>
+      <c r="H134" s="0" t="str">
+        <v>36496</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" customFormat="false">
+      <c r="A135" s="0" t="str">
+        <v>0005539186</v>
+      </c>
+      <c r="B135" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C135" s="0" t="str">
+        <v>05:08:53</v>
+      </c>
+      <c r="D135" s="0">
+        <v>20.6960012</v>
+      </c>
+      <c r="E135" s="0" t="str">
+        <v>10.198.29.240</v>
+      </c>
+      <c r="F135" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G135" s="0" t="str">
+        <v>51159798</v>
+      </c>
+      <c r="H135" s="0" t="str">
+        <v>36497</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" customFormat="false">
+      <c r="A136" s="0" t="str">
+        <v>0005544093</v>
+      </c>
+      <c r="B136" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C136" s="0" t="str">
+        <v>11:10:51</v>
+      </c>
+      <c r="D136" s="0">
+        <v>20.6753418</v>
+      </c>
+      <c r="E136" s="0" t="str">
+        <v>192.168.15.164</v>
+      </c>
+      <c r="F136" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G136" s="0" t="str">
+        <v>51159516</v>
+      </c>
+      <c r="H136" s="0" t="str">
+        <v>36498</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" customFormat="false">
+      <c r="A137" s="0" t="str">
+        <v>0005544031</v>
+      </c>
+      <c r="B137" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C137" s="0" t="str">
+        <v>12:09:36</v>
+      </c>
+      <c r="D137" s="0">
+        <v>26.9027868</v>
+      </c>
+      <c r="E137" s="0" t="str">
+        <v>172.20.10.6</v>
+      </c>
+      <c r="F137" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G137" s="0" t="str">
+        <v>51159556</v>
+      </c>
+      <c r="H137" s="0" t="str">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" customFormat="false">
+      <c r="A138" s="0" t="str">
+        <v>0005542252</v>
+      </c>
+      <c r="B138" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C138" s="0" t="str">
+        <v>12:17:30</v>
+      </c>
+      <c r="D138" s="0">
+        <v>19.427032</v>
+      </c>
+      <c r="E138" s="0" t="str">
+        <v>10.35.93.223</v>
+      </c>
+      <c r="F138" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G138" s="0" t="str">
+        <v>51159564</v>
+      </c>
+      <c r="H138" s="0" t="str">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" customFormat="false">
+      <c r="A139" s="0" t="str">
+        <v>0004966904</v>
+      </c>
+      <c r="B139" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C139" s="0" t="str">
+        <v>05:34:09</v>
+      </c>
+      <c r="D139" s="0">
+        <v>19.1988217</v>
+      </c>
+      <c r="E139" s="0" t="str">
+        <v>192.168.100.15</v>
+      </c>
+      <c r="F139" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G139" s="0" t="str">
+        <v>51159640</v>
+      </c>
+      <c r="H139" s="0" t="str">
+        <v>36501</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" customFormat="false">
+      <c r="A140" s="0" t="str">
+        <v>0005543661</v>
+      </c>
+      <c r="B140" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C140" s="0" t="str">
+        <v>09:13:08</v>
+      </c>
+      <c r="D140" s="0">
+        <v>20.5811771</v>
+      </c>
+      <c r="E140" s="0" t="str">
+        <v>192.168.1.64</v>
+      </c>
+      <c r="F140" s="0" t="str">
+        <v>M2101K7BL</v>
+      </c>
+      <c r="G140" s="0" t="str">
+        <v>51159668</v>
+      </c>
+      <c r="H140" s="0" t="str">
+        <v>36502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" customFormat="false">
+      <c r="A141" s="0" t="str">
+        <v>0005544616</v>
+      </c>
+      <c r="B141" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C141" s="0" t="str">
+        <v>03:22:14</v>
+      </c>
+      <c r="D141" s="0">
+        <v>26.9028337</v>
+      </c>
+      <c r="E141" s="0" t="str">
+        <v>10.240.101.143</v>
+      </c>
+      <c r="F141" s="0" t="str">
+        <v>moto g(60)</v>
+      </c>
+      <c r="G141" s="0" t="str">
+        <v>51159707</v>
+      </c>
+      <c r="H141" s="0" t="str">
+        <v>36503</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" customFormat="false">
+      <c r="A142" s="0" t="str">
+        <v>0005544894</v>
+      </c>
+      <c r="B142" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C142" s="0" t="str">
+        <v>02:58:28</v>
+      </c>
+      <c r="D142" s="0">
+        <v>21.5073832</v>
+      </c>
+      <c r="E142" s="0" t="str">
+        <v>192.168.0.20</v>
+      </c>
+      <c r="F142" s="0" t="str">
+        <v>SM-A307G</v>
+      </c>
+      <c r="G142" s="0" t="str">
+        <v>51159742</v>
+      </c>
+      <c r="H142" s="0" t="str">
+        <v>36504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" customFormat="false">
+      <c r="A143" s="0" t="str">
+        <v>0005544654</v>
+      </c>
+      <c r="B143" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C143" s="0" t="str">
+        <v>02:11:06</v>
+      </c>
+      <c r="D143" s="0">
+        <v>32.6084752</v>
+      </c>
+      <c r="E143" s="0" t="str">
+        <v>172.20.10.3</v>
+      </c>
+      <c r="F143" s="0" t="str">
+        <v>SM-A325M</v>
+      </c>
+      <c r="G143" s="0" t="str">
+        <v>51159751</v>
+      </c>
+      <c r="H143" s="0" t="str">
+        <v>36505</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" customFormat="false">
+      <c r="A144" s="0" t="str">
+        <v>0005544050</v>
+      </c>
+      <c r="B144" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C144" s="0" t="str">
+        <v>11:37:15</v>
+      </c>
+      <c r="D144" s="0">
+        <v>25.757184</v>
+      </c>
+      <c r="E144" s="0" t="str">
+        <v>192.168.100.14</v>
+      </c>
+      <c r="F144" s="0" t="str">
+        <v>SM-A715F</v>
+      </c>
+      <c r="G144" s="0" t="str">
+        <v>51159793</v>
+      </c>
+      <c r="H144" s="0" t="str">
+        <v>36506</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" customFormat="false">
+      <c r="A145" s="0" t="str">
+        <v>0005544017</v>
+      </c>
+      <c r="B145" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C145" s="0" t="str">
+        <v>12:51:23</v>
+      </c>
+      <c r="D145" s="0">
+        <v>20.6887891</v>
+      </c>
+      <c r="E145" s="0" t="str">
+        <v>192.168.1.93</v>
+      </c>
+      <c r="F145" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G145" s="0" t="str">
+        <v>51159909</v>
+      </c>
+      <c r="H145" s="0" t="str">
+        <v>36507</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" customFormat="false">
+      <c r="A146" s="0" t="str">
+        <v>0005544293</v>
+      </c>
+      <c r="B146" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C146" s="0" t="str">
+        <v>07:03:14</v>
+      </c>
+      <c r="D146" s="0">
+        <v>19.4851818</v>
+      </c>
+      <c r="E146" s="0" t="str">
+        <v>192.168.0.32</v>
+      </c>
+      <c r="F146" s="0" t="str">
+        <v>moto e(7i) power</v>
+      </c>
+      <c r="G146" s="0" t="str">
+        <v>51159931</v>
+      </c>
+      <c r="H146" s="0" t="str">
+        <v>36508</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" customFormat="false">
+      <c r="A147" s="0" t="str">
+        <v>0004811217</v>
+      </c>
+      <c r="B147" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C147" s="0" t="str">
+        <v>11:03:48</v>
+      </c>
+      <c r="D147" s="0">
+        <v>32.6084673</v>
+      </c>
+      <c r="E147" s="0" t="str">
+        <v>10.38.104.21</v>
+      </c>
+      <c r="F147" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G147" s="0" t="str">
+        <v>51159932</v>
+      </c>
+      <c r="H147" s="0" t="str">
+        <v>36509</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" customFormat="false">
+      <c r="A148" s="0" t="str">
+        <v>0005545460</v>
+      </c>
+      <c r="B148" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C148" s="0" t="str">
+        <v>04:30:34</v>
+      </c>
+      <c r="D148" s="0">
+        <v>24.02381</v>
+      </c>
+      <c r="E148" s="0" t="str">
+        <v>10.176.56.195</v>
+      </c>
+      <c r="F148" s="0" t="str">
+        <v>SNE-LX3</v>
+      </c>
+      <c r="G148" s="0" t="str">
+        <v>51159906</v>
+      </c>
+      <c r="H148" s="0" t="str">
+        <v>36510</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" customFormat="false">
+      <c r="A149" s="0" t="str">
+        <v>0005542628</v>
+      </c>
+      <c r="B149" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C149" s="0" t="str">
+        <v>02:48:11</v>
+      </c>
+      <c r="D149" s="0">
+        <v>20.0639726</v>
+      </c>
+      <c r="E149" s="0" t="str">
+        <v>100.104.39.80</v>
+      </c>
+      <c r="F149" s="0" t="str">
+        <v>M2101K7BL</v>
+      </c>
+      <c r="G149" s="0" t="str">
+        <v>51159455</v>
+      </c>
+      <c r="H149" s="0" t="str">
+        <v>36511</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" customFormat="false">
+      <c r="A150" s="0" t="str">
+        <v>0005541147</v>
+      </c>
+      <c r="B150" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C150" s="0" t="str">
+        <v>06:34:58</v>
+      </c>
+      <c r="D150" s="0">
+        <v>19.3419763</v>
+      </c>
+      <c r="E150" s="0" t="str">
+        <v>192.168.100.19</v>
+      </c>
+      <c r="F150" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G150" s="0" t="str">
+        <v>51159469</v>
+      </c>
+      <c r="H150" s="0" t="str">
+        <v>36512</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" customFormat="false">
+      <c r="A151" s="0" t="str">
+        <v>0004953399</v>
+      </c>
+      <c r="B151" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C151" s="0" t="str">
+        <v>09:51:42</v>
+      </c>
+      <c r="D151" s="0">
+        <v>28.6889353</v>
+      </c>
+      <c r="E151" s="0" t="str">
+        <v>10.0.0.4</v>
+      </c>
+      <c r="F151" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G151" s="0" t="str">
+        <v>51159479</v>
+      </c>
+      <c r="H151" s="0" t="str">
+        <v>36513</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" customFormat="false">
+      <c r="A152" s="0" t="str">
+        <v>0005540710</v>
+      </c>
+      <c r="B152" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C152" s="0" t="str">
+        <v>02:04:58</v>
+      </c>
+      <c r="D152" s="0">
+        <v>20.1161184</v>
+      </c>
+      <c r="E152" s="0" t="str">
+        <v>10.36.63.143</v>
+      </c>
+      <c r="F152" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G152" s="0" t="str">
+        <v>51159494</v>
+      </c>
+      <c r="H152" s="0" t="str">
+        <v>36514</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" customFormat="false">
+      <c r="A153" s="0" t="str">
+        <v>0005394459</v>
+      </c>
+      <c r="B153" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C153" s="0" t="str">
+        <v>10:48:39</v>
+      </c>
+      <c r="D153" s="0">
+        <v>20.6887555</v>
+      </c>
+      <c r="E153" s="0" t="str">
+        <v>192.168.1.93</v>
+      </c>
+      <c r="F153" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G153" s="0" t="str">
+        <v>51159500</v>
+      </c>
+      <c r="H153" s="0" t="str">
+        <v>36515</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" customFormat="false">
+      <c r="A154" s="0" t="str">
+        <v>0004867937</v>
+      </c>
+      <c r="B154" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C154" s="0" t="str">
+        <v>11:57:44</v>
+      </c>
+      <c r="D154" s="0">
+        <v>19.1987833</v>
+      </c>
+      <c r="E154" s="0" t="str">
+        <v>10.247.64.232</v>
+      </c>
+      <c r="F154" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G154" s="0" t="str">
+        <v>51159505</v>
+      </c>
+      <c r="H154" s="0" t="str">
+        <v>36516</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" customFormat="false">
+      <c r="A155" s="0" t="str">
+        <v>0005542255</v>
+      </c>
+      <c r="B155" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C155" s="0" t="str">
+        <v>11:54:35</v>
+      </c>
+      <c r="D155" s="0">
+        <v>20.584628</v>
+      </c>
+      <c r="E155" s="0" t="str">
+        <v>192.168.5.72</v>
+      </c>
+      <c r="F155" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G155" s="0" t="str">
+        <v>51159540</v>
+      </c>
+      <c r="H155" s="0" t="str">
+        <v>36517</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" customFormat="false">
+      <c r="A156" s="0" t="str">
+        <v>0005538982</v>
+      </c>
+      <c r="B156" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C156" s="0" t="str">
+        <v>04:03:10</v>
+      </c>
+      <c r="D156" s="0">
+        <v>20.6448934</v>
+      </c>
+      <c r="E156" s="0" t="str">
+        <v>10.70.186.13</v>
+      </c>
+      <c r="F156" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G156" s="0" t="str">
+        <v>51159650</v>
+      </c>
+      <c r="H156" s="0" t="str">
+        <v>36518</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" customFormat="false">
+      <c r="A157" s="0" t="str">
+        <v>0005544169</v>
+      </c>
+      <c r="B157" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C157" s="0" t="str">
+        <v>01:30:19</v>
+      </c>
+      <c r="D157" s="0">
+        <v>24.024013</v>
+      </c>
+      <c r="E157" s="0" t="str">
+        <v>10.14.23.242</v>
+      </c>
+      <c r="F157" s="0" t="str">
+        <v>SNE-LX3</v>
+      </c>
+      <c r="G157" s="0" t="str">
+        <v>51159706</v>
+      </c>
+      <c r="H157" s="0" t="str">
+        <v>36519</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" customFormat="false">
+      <c r="A158" s="0" t="str">
+        <v>0005082105</v>
+      </c>
+      <c r="B158" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C158" s="0" t="str">
+        <v>08:46:31</v>
+      </c>
+      <c r="D158" s="0">
+        <v>19.686118</v>
+      </c>
+      <c r="E158" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F158" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G158" s="0" t="str">
+        <v>51159949</v>
+      </c>
+      <c r="H158" s="0" t="str">
+        <v>36520</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" customFormat="false">
+      <c r="A159" s="0" t="str">
+        <v>0004969258</v>
+      </c>
+      <c r="B159" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C159" s="0" t="str">
+        <v>07:09:59</v>
+      </c>
+      <c r="D159" s="0">
+        <v>28.689135</v>
+      </c>
+      <c r="E159" s="0" t="str">
+        <v>10.0.0.4</v>
+      </c>
+      <c r="F159" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G159" s="0" t="str">
+        <v>51159969</v>
+      </c>
+      <c r="H159" s="0" t="str">
+        <v>36521</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" customFormat="false">
+      <c r="A160" s="0" t="str">
+        <v>0003785192</v>
+      </c>
+      <c r="B160" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C160" s="0" t="str">
+        <v>04:52:27</v>
+      </c>
+      <c r="D160" s="0">
+        <v>19.4314995</v>
+      </c>
+      <c r="E160" s="0" t="str">
+        <v>10.202.151.88</v>
+      </c>
+      <c r="F160" s="0" t="str">
+        <v>SM-A505G</v>
+      </c>
+      <c r="G160" s="0" t="str">
+        <v>51160138</v>
+      </c>
+      <c r="H160" s="0" t="str">
+        <v>36522</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" customFormat="false">
+      <c r="A161" s="0" t="str">
+        <v>0005545344</v>
+      </c>
+      <c r="B161" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C161" s="0" t="str">
+        <v>08:49:38</v>
+      </c>
+      <c r="D161" s="0">
+        <v>19.6861212</v>
+      </c>
+      <c r="E161" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F161" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G161" s="0" t="str">
+        <v>51159950</v>
+      </c>
+      <c r="H161" s="0" t="str">
+        <v>36523</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" customFormat="false">
+      <c r="A162" s="0" t="str">
+        <v>0000695813</v>
+      </c>
+      <c r="B162" s="0" t="str">
+        <v>2022-04-20</v>
+      </c>
+      <c r="C162" s="0" t="str">
+        <v>03:35:33</v>
+      </c>
+      <c r="D162" s="0">
+        <v>19.3034335</v>
+      </c>
+      <c r="E162" s="0" t="str">
+        <v>10.80.32.126</v>
+      </c>
+      <c r="F162" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G162" s="0" t="str">
+        <v>51159980</v>
+      </c>
+      <c r="H162" s="0" t="str">
+        <v>36524</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" customFormat="false">
+      <c r="A163" s="0" t="str">
+        <v>0005545757</v>
+      </c>
+      <c r="B163" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C163" s="0" t="str">
+        <v>12:19:43</v>
+      </c>
+      <c r="D163" s="0">
+        <v>19.6862212</v>
+      </c>
+      <c r="E163" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F163" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G163" s="0" t="str">
+        <v>51160087</v>
+      </c>
+      <c r="H163" s="0" t="str">
+        <v>36525</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" customFormat="false">
+      <c r="A164" s="0" t="str">
+        <v>0000580582</v>
+      </c>
+      <c r="B164" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C164" s="0" t="str">
+        <v>04:06:38</v>
+      </c>
+      <c r="D164" s="0">
+        <v>28.6889354</v>
+      </c>
+      <c r="E164" s="0" t="str">
+        <v>10.0.0.4</v>
+      </c>
+      <c r="F164" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G164" s="0" t="str">
+        <v>51160132</v>
+      </c>
+      <c r="H164" s="0" t="str">
+        <v>36526</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" customFormat="false">
+      <c r="A165" s="0" t="str">
+        <v>0005524066</v>
+      </c>
+      <c r="B165" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C165" s="0" t="str">
+        <v>09:11:09</v>
+      </c>
+      <c r="D165" s="0">
+        <v>20.5846387</v>
+      </c>
+      <c r="E165" s="0" t="str">
+        <v>192.168.5.75</v>
+      </c>
+      <c r="F165" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G165" s="0" t="str">
+        <v>51159952</v>
+      </c>
+      <c r="H165" s="0" t="str">
+        <v>36527</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" customFormat="false">
+      <c r="A166" s="0" t="str">
+        <v>0004965680</v>
+      </c>
+      <c r="B166" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C166" s="0" t="str">
+        <v>12:05:52</v>
+      </c>
+      <c r="D166" s="0">
+        <v>20.1161106</v>
+      </c>
+      <c r="E166" s="0" t="str">
+        <v>10.132.38.52</v>
+      </c>
+      <c r="F166" s="0" t="str">
+        <v>SM-A107M</v>
+      </c>
+      <c r="G166" s="0" t="str">
+        <v>51160031</v>
+      </c>
+      <c r="H166" s="0" t="str">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" customFormat="false">
+      <c r="A167" s="0" t="str">
+        <v>0005545767</v>
+      </c>
+      <c r="B167" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C167" s="0" t="str">
+        <v>01:15:25</v>
+      </c>
+      <c r="D167" s="0">
+        <v>19.6861714</v>
+      </c>
+      <c r="E167" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F167" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G167" s="0" t="str">
+        <v>51160071</v>
+      </c>
+      <c r="H167" s="0" t="str">
+        <v>36529</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" customFormat="false">
+      <c r="A168" s="0" t="str">
+        <v>0004970241</v>
+      </c>
+      <c r="B168" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C168" s="0" t="str">
+        <v>12:02:53</v>
+      </c>
+      <c r="D168" s="0">
+        <v>32.6087094</v>
+      </c>
+      <c r="E168" s="0" t="str">
+        <v>10.120.9.29</v>
+      </c>
+      <c r="F168" s="0" t="str">
+        <v>SM-A515F</v>
+      </c>
+      <c r="G168" s="0" t="str">
+        <v>51160093</v>
+      </c>
+      <c r="H168" s="0" t="str">
+        <v>36530</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" customFormat="false">
+      <c r="A169" s="0" t="str">
+        <v>0004928877</v>
+      </c>
+      <c r="B169" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C169" s="0" t="str">
+        <v>12:06:23</v>
+      </c>
+      <c r="D169" s="0">
+        <v>19.3419297</v>
+      </c>
+      <c r="E169" s="0" t="str">
+        <v>192.168.100.16</v>
+      </c>
+      <c r="F169" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G169" s="0" t="str">
+        <v>51160117</v>
+      </c>
+      <c r="H169" s="0" t="str">
+        <v>36531</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" customFormat="false">
+      <c r="A170" s="0" t="str">
+        <v>0005267918</v>
+      </c>
+      <c r="B170" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C170" s="0" t="str">
+        <v>12:58:01</v>
+      </c>
+      <c r="D170" s="0">
+        <v>19.3421401</v>
+      </c>
+      <c r="E170" s="0" t="str">
+        <v>192.168.100.16</v>
+      </c>
+      <c r="F170" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G170" s="0" t="str">
+        <v>51160133</v>
+      </c>
+      <c r="H170" s="0" t="str">
+        <v>36532</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" customFormat="false">
+      <c r="A171" s="0" t="str">
+        <v>0004970601</v>
+      </c>
+      <c r="B171" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C171" s="0" t="str">
+        <v>09:47:48</v>
+      </c>
+      <c r="D171" s="0">
+        <v>19.3775817</v>
+      </c>
+      <c r="E171" s="0" t="str">
+        <v>10.207.157.235</v>
+      </c>
+      <c r="F171" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G171" s="0" t="str">
+        <v>51159959</v>
+      </c>
+      <c r="H171" s="0" t="str">
+        <v>36533</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" customFormat="false">
+      <c r="A172" s="0" t="str">
+        <v>0002526636</v>
+      </c>
+      <c r="B172" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C172" s="0" t="str">
+        <v>02:56:48</v>
+      </c>
+      <c r="D172" s="0">
+        <v>32.6028733</v>
+      </c>
+      <c r="E172" s="0" t="str">
+        <v>10.81.153.188</v>
+      </c>
+      <c r="F172" s="0" t="str">
+        <v>SM-G975U1</v>
+      </c>
+      <c r="G172" s="0" t="str">
+        <v>51160186</v>
+      </c>
+      <c r="H172" s="0" t="str">
+        <v>36534</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" customFormat="false">
+      <c r="A173" s="0" t="str">
+        <v>0005543494</v>
+      </c>
+      <c r="B173" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C173" s="0" t="str">
+        <v>11:23:02</v>
+      </c>
+      <c r="D173" s="0">
+        <v>19.6862018</v>
+      </c>
+      <c r="E173" s="0" t="str">
+        <v>192.168.10.103</v>
+      </c>
+      <c r="F173" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G173" s="0" t="str">
+        <v>51160211</v>
+      </c>
+      <c r="H173" s="0" t="str">
+        <v>36535</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" customFormat="false">
+      <c r="A174" s="0" t="str">
+        <v>0005548769</v>
+      </c>
+      <c r="B174" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C174" s="0" t="str">
+        <v>02:46:02</v>
+      </c>
+      <c r="D174" s="0">
+        <v>20.5846374</v>
+      </c>
+      <c r="E174" s="0" t="str">
+        <v>192.168.5.75</v>
+      </c>
+      <c r="F174" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G174" s="0" t="str">
+        <v>51160358</v>
+      </c>
+      <c r="H174" s="0" t="str">
+        <v>36536</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" customFormat="false">
+      <c r="A175" s="0" t="str">
+        <v>0004963044</v>
+      </c>
+      <c r="B175" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C175" s="0" t="str">
+        <v>08:53:13</v>
+      </c>
+      <c r="D175" s="0">
+        <v>19.6861257</v>
+      </c>
+      <c r="E175" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F175" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G175" s="0" t="str">
+        <v>51160386</v>
+      </c>
+      <c r="H175" s="0" t="str">
+        <v>36537</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" customFormat="false">
+      <c r="A176" s="0" t="str">
+        <v>0004817212</v>
+      </c>
+      <c r="B176" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C176" s="0" t="str">
+        <v>06:37:56</v>
+      </c>
+      <c r="D176" s="0">
+        <v>19.4270194</v>
+      </c>
+      <c r="E176" s="0" t="str">
+        <v>10.106.126.127</v>
+      </c>
+      <c r="F176" s="0" t="str">
+        <v>V2058</v>
+      </c>
+      <c r="G176" s="0" t="str">
+        <v>51160457</v>
+      </c>
+      <c r="H176" s="0" t="str">
+        <v>36538</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" customFormat="false">
+      <c r="A177" s="0" t="str">
+        <v>0004980464</v>
+      </c>
+      <c r="B177" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C177" s="0" t="str">
+        <v>06:02:02</v>
+      </c>
+      <c r="D177" s="0">
+        <v>20.1161583</v>
+      </c>
+      <c r="E177" s="0" t="str">
+        <v>192.168.43.212</v>
+      </c>
+      <c r="F177" s="0" t="str">
+        <v>SM-A107M</v>
+      </c>
+      <c r="G177" s="0" t="str">
+        <v>51160492</v>
+      </c>
+      <c r="H177" s="0" t="str">
+        <v>36539</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" customFormat="false">
+      <c r="A178" s="0" t="str">
+        <v>0005542454</v>
+      </c>
+      <c r="B178" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C178" s="0" t="str">
+        <v>09:00:39</v>
+      </c>
+      <c r="D178" s="0">
+        <v>19.6861285</v>
+      </c>
+      <c r="E178" s="0" t="str">
+        <v>192.168.10.103</v>
+      </c>
+      <c r="F178" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G178" s="0" t="str">
+        <v>51160166</v>
+      </c>
+      <c r="H178" s="0" t="str">
+        <v>36540</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" customFormat="false">
+      <c r="A179" s="0" t="str">
+        <v>0005538052</v>
+      </c>
+      <c r="B179" s="0" t="str">
+        <v>2022-04-19</v>
+      </c>
+      <c r="C179" s="0" t="str">
+        <v>01:52:12</v>
+      </c>
+      <c r="D179" s="0">
+        <v>25.8105447</v>
+      </c>
+      <c r="E179" s="0" t="str">
+        <v>192.168.100.74</v>
+      </c>
+      <c r="F179" s="0" t="str">
+        <v>moto g(60)</v>
+      </c>
+      <c r="G179" s="0" t="str">
+        <v>51160215</v>
+      </c>
+      <c r="H179" s="0" t="str">
+        <v>36541</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" customFormat="false">
+      <c r="A180" s="0" t="str">
+        <v>0005540889</v>
+      </c>
+      <c r="B180" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C180" s="0" t="str">
+        <v>12:12:58</v>
+      </c>
+      <c r="D180" s="0">
+        <v>31.7013482</v>
+      </c>
+      <c r="E180" s="0" t="str">
+        <v>192.168.100.20</v>
+      </c>
+      <c r="F180" s="0" t="str">
+        <v>SM-A025F</v>
+      </c>
+      <c r="G180" s="0" t="str">
+        <v>51160293</v>
+      </c>
+      <c r="H180" s="0" t="str">
+        <v>36542</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" customFormat="false">
+      <c r="A181" s="0" t="str">
+        <v>0004970670</v>
+      </c>
+      <c r="B181" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C181" s="0" t="str">
+        <v>03:01:45</v>
+      </c>
+      <c r="D181" s="0">
+        <v>19.4270172</v>
+      </c>
+      <c r="E181" s="0" t="str">
+        <v>10.168.199.52</v>
+      </c>
+      <c r="F181" s="0" t="str">
+        <v>DUB-LX3</v>
+      </c>
+      <c r="G181" s="0" t="str">
+        <v>51160366</v>
+      </c>
+      <c r="H181" s="0" t="str">
+        <v>36543</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" customFormat="false">
+      <c r="A182" s="0" t="str">
+        <v>0005413715</v>
+      </c>
+      <c r="B182" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C182" s="0" t="str">
+        <v>02:15:52</v>
+      </c>
+      <c r="D182" s="0">
+        <v>19.3419797</v>
+      </c>
+      <c r="E182" s="0" t="str">
+        <v>192.168.100.4</v>
+      </c>
+      <c r="F182" s="0" t="str">
+        <v>moto e(6) plus</v>
+      </c>
+      <c r="G182" s="0" t="str">
+        <v>51160370</v>
+      </c>
+      <c r="H182" s="0" t="str">
+        <v>36544</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" customFormat="false">
+      <c r="A183" s="0" t="str">
+        <v>0002244494</v>
+      </c>
+      <c r="B183" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C183" s="0" t="str">
+        <v>01:13:18</v>
+      </c>
+      <c r="D183" s="0">
+        <v>24.124888</v>
+      </c>
+      <c r="E183" s="0" t="str">
+        <v>192.168.1.219</v>
+      </c>
+      <c r="F183" s="0" t="str">
+        <v>SM-A525M</v>
+      </c>
+      <c r="G183" s="0" t="str">
+        <v>51160372</v>
+      </c>
+      <c r="H183" s="0" t="str">
+        <v>36545</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" customFormat="false">
+      <c r="A184" s="0" t="str">
+        <v>0004043996</v>
+      </c>
+      <c r="B184" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C184" s="0" t="str">
+        <v>10:42:01</v>
+      </c>
+      <c r="D184" s="0">
+        <v>29.0807676</v>
+      </c>
+      <c r="E184" s="0" t="str">
+        <v>10.149.239.252</v>
+      </c>
+      <c r="F184" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G184" s="0" t="str">
+        <v>51160416</v>
+      </c>
+      <c r="H184" s="0" t="str">
+        <v>36546</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" customFormat="false">
+      <c r="A185" s="0" t="str">
+        <v>0005549410</v>
+      </c>
+      <c r="B185" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C185" s="0" t="str">
+        <v>04:57:40</v>
+      </c>
+      <c r="D185" s="0">
+        <v>19.4270842</v>
+      </c>
+      <c r="E185" s="0" t="str">
+        <v>10.6.22.108</v>
+      </c>
+      <c r="F185" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G185" s="0" t="str">
+        <v>51160436</v>
+      </c>
+      <c r="H185" s="0" t="str">
+        <v>36547</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" customFormat="false">
+      <c r="A186" s="0" t="str">
+        <v>0004975877</v>
+      </c>
+      <c r="B186" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C186" s="0" t="str">
+        <v>05:19:50</v>
+      </c>
+      <c r="D186" s="0">
+        <v>20.1187318</v>
+      </c>
+      <c r="E186" s="0" t="str">
+        <v>192.168.100.55</v>
+      </c>
+      <c r="F186" s="0" t="str">
+        <v>CPH2205</v>
+      </c>
+      <c r="G186" s="0" t="str">
+        <v>51160456</v>
+      </c>
+      <c r="H186" s="0" t="str">
+        <v>36548</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" customFormat="false">
+      <c r="A187" s="0" t="str">
+        <v>0005273482</v>
+      </c>
+      <c r="B187" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C187" s="0" t="str">
+        <v>05:41:15</v>
+      </c>
+      <c r="D187" s="0">
+        <v>18.8488414</v>
+      </c>
+      <c r="E187" s="0" t="str">
+        <v>192.168.1.66</v>
+      </c>
+      <c r="F187" s="0" t="str">
+        <v>moto g(30)</v>
+      </c>
+      <c r="G187" s="0" t="str">
+        <v>51160475</v>
+      </c>
+      <c r="H187" s="0" t="str">
+        <v>36549</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" customFormat="false">
+      <c r="A188" s="0" t="str">
+        <v>0005546367</v>
+      </c>
+      <c r="B188" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C188" s="0" t="str">
+        <v>10:14:45</v>
+      </c>
+      <c r="D188" s="0">
+        <v>26.9028147</v>
+      </c>
+      <c r="E188" s="0" t="str">
+        <v>10.102.53.209</v>
+      </c>
+      <c r="F188" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G188" s="0" t="str">
+        <v>51160180</v>
+      </c>
+      <c r="H188" s="0" t="str">
+        <v>36550</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" customFormat="false">
+      <c r="A189" s="0" t="str">
+        <v>0005548855</v>
+      </c>
+      <c r="B189" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C189" s="0" t="str">
+        <v>12:48:36</v>
+      </c>
+      <c r="D189" s="0">
+        <v>25.7549135</v>
+      </c>
+      <c r="E189" s="0" t="str">
+        <v>192.168.1.65</v>
+      </c>
+      <c r="F189" s="0" t="str">
+        <v>motorola one vision</v>
+      </c>
+      <c r="G189" s="0" t="str">
+        <v>51160261</v>
+      </c>
+      <c r="H189" s="0" t="str">
+        <v>36551</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" customFormat="false">
+      <c r="A190" s="0" t="str">
+        <v>0005549351</v>
+      </c>
+      <c r="B190" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C190" s="0" t="str">
+        <v>05:00:17</v>
+      </c>
+      <c r="D190" s="0">
+        <v>21.1252484</v>
+      </c>
+      <c r="E190" s="0" t="str">
+        <v>10.241.220.59</v>
+      </c>
+      <c r="F190" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G190" s="0" t="str">
+        <v>51160696</v>
+      </c>
+      <c r="H190" s="0" t="str">
+        <v>36552</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" customFormat="false">
+      <c r="A191" s="0" t="str">
+        <v>0004340163</v>
+      </c>
+      <c r="B191" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C191" s="0" t="str">
+        <v>04:19:14</v>
+      </c>
+      <c r="D191" s="0">
+        <v>25.7151126</v>
+      </c>
+      <c r="E191" s="0" t="str">
+        <v>10.226.135.168</v>
+      </c>
+      <c r="F191" s="0" t="str">
+        <v>motorola one vision</v>
+      </c>
+      <c r="G191" s="0" t="str">
+        <v>51160906</v>
+      </c>
+      <c r="H191" s="0" t="str">
+        <v>36553</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" customFormat="false">
+      <c r="A192" s="0" t="str">
+        <v>0005236546</v>
+      </c>
+      <c r="B192" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C192" s="0" t="str">
+        <v>09:10:03</v>
+      </c>
+      <c r="D192" s="0">
+        <v>24.0121913</v>
+      </c>
+      <c r="E192" s="0" t="str">
+        <v>10.192.199.141</v>
+      </c>
+      <c r="F192" s="0" t="str">
+        <v>SNE-LX3</v>
+      </c>
+      <c r="G192" s="0" t="str">
+        <v>51160602</v>
+      </c>
+      <c r="H192" s="0" t="str">
+        <v>36554</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" customFormat="false">
+      <c r="A193" s="0" t="str">
+        <v>0004968012</v>
+      </c>
+      <c r="B193" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C193" s="0" t="str">
+        <v>10:10:39</v>
+      </c>
+      <c r="D193" s="0">
+        <v>32.6085435</v>
+      </c>
+      <c r="E193" s="0" t="str">
+        <v>10.194.145.174</v>
+      </c>
+      <c r="F193" s="0" t="str">
+        <v>SM-A325M</v>
+      </c>
+      <c r="G193" s="0" t="str">
+        <v>51160793</v>
+      </c>
+      <c r="H193" s="0" t="str">
+        <v>36555</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" customFormat="false">
+      <c r="A194" s="0" t="str">
+        <v>0004883104</v>
+      </c>
+      <c r="B194" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C194" s="0" t="str">
+        <v>07:46:52</v>
+      </c>
+      <c r="D194" s="0">
+        <v>19.6860559</v>
+      </c>
+      <c r="E194" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F194" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G194" s="0" t="str">
+        <v>51160810</v>
+      </c>
+      <c r="H194" s="0" t="str">
+        <v>36556</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" customFormat="false">
+      <c r="A195" s="0" t="str">
+        <v>0004974551</v>
+      </c>
+      <c r="B195" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C195" s="0" t="str">
+        <v>02:11:37</v>
+      </c>
+      <c r="D195" s="0">
+        <v>19.4270882</v>
+      </c>
+      <c r="E195" s="0" t="str">
+        <v>10.22.79.47</v>
+      </c>
+      <c r="F195" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G195" s="0" t="str">
+        <v>51160821</v>
+      </c>
+      <c r="H195" s="0" t="str">
+        <v>36557</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" customFormat="false">
+      <c r="A196" s="0" t="str">
+        <v>0005271601</v>
+      </c>
+      <c r="B196" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C196" s="0" t="str">
+        <v>04:47:23</v>
+      </c>
+      <c r="D196" s="0">
+        <v>19.3421499</v>
+      </c>
+      <c r="E196" s="0" t="str">
+        <v>192.168.100.16</v>
+      </c>
+      <c r="F196" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G196" s="0" t="str">
+        <v>51160939</v>
+      </c>
+      <c r="H196" s="0" t="str">
+        <v>36558</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" customFormat="false">
+      <c r="A197" s="0" t="str">
+        <v>0005550905</v>
+      </c>
+      <c r="B197" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C197" s="0" t="str">
+        <v>05:09:30</v>
+      </c>
+      <c r="D197" s="0">
+        <v>19.3721611</v>
+      </c>
+      <c r="E197" s="0" t="str">
+        <v>192.168.0.13</v>
+      </c>
+      <c r="F197" s="0" t="str">
+        <v>moto e5 plus</v>
+      </c>
+      <c r="G197" s="0" t="str">
+        <v>51160969</v>
+      </c>
+      <c r="H197" s="0" t="str">
+        <v>36559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" customFormat="false">
+      <c r="A198" s="0" t="str">
+        <v>0005537263</v>
+      </c>
+      <c r="B198" s="0" t="str">
+        <v>2022-04-18</v>
+      </c>
+      <c r="C198" s="0" t="str">
+        <v>03:48:42</v>
+      </c>
+      <c r="D198" s="0">
+        <v>26.0937005</v>
+      </c>
+      <c r="E198" s="0" t="str">
+        <v>192.168.0.9</v>
+      </c>
+      <c r="F198" s="0" t="str">
+        <v>CPH2127</v>
+      </c>
+      <c r="G198" s="0" t="str">
+        <v>51161026</v>
+      </c>
+      <c r="H198" s="0" t="str">
+        <v>36560</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" customFormat="false">
+      <c r="A199" s="0" t="str">
+        <v>0003030317</v>
+      </c>
+      <c r="B199" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C199" s="0" t="str">
+        <v>06:58:47</v>
+      </c>
+      <c r="D199" s="0">
+        <v>19.4074721</v>
+      </c>
+      <c r="E199" s="0" t="str">
+        <v>192.168.0.12</v>
+      </c>
+      <c r="F199" s="0" t="str">
+        <v>SM-A225M</v>
+      </c>
+      <c r="G199" s="0" t="str">
+        <v>51161067</v>
+      </c>
+      <c r="H199" s="0" t="str">
+        <v>36561</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" customFormat="false">
+      <c r="A200" s="0" t="str">
+        <v>0005186334</v>
+      </c>
+      <c r="B200" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C200" s="0" t="str">
+        <v>05:22:49</v>
+      </c>
+      <c r="D200" s="0">
+        <v>19.2407575</v>
+      </c>
+      <c r="E200" s="0" t="str">
+        <v>192.168.1.241</v>
+      </c>
+      <c r="F200" s="0" t="str">
+        <v>SM-A515F</v>
+      </c>
+      <c r="G200" s="0" t="str">
+        <v>51161070</v>
+      </c>
+      <c r="H200" s="0" t="str">
+        <v>36562</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" customFormat="false">
+      <c r="A201" s="0" t="str">
+        <v>0004782148</v>
+      </c>
+      <c r="B201" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C201" s="0" t="str">
+        <v>07:10:37</v>
+      </c>
+      <c r="D201" s="0">
+        <v>19.4268926</v>
+      </c>
+      <c r="E201" s="0" t="str">
+        <v>10.249.21.42</v>
+      </c>
+      <c r="F201" s="0" t="str">
+        <v>M2003J15SC</v>
+      </c>
+      <c r="G201" s="0" t="str">
+        <v>51161074</v>
+      </c>
+      <c r="H201" s="0" t="str">
+        <v>36563</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" customFormat="false">
+      <c r="A202" s="0" t="str">
+        <v>0005543959</v>
+      </c>
+      <c r="B202" s="0" t="str">
+        <v>2022-04-23</v>
+      </c>
+      <c r="C202" s="0" t="str">
+        <v>09:19:02</v>
+      </c>
+      <c r="D202" s="0">
+        <v>20.5846438</v>
+      </c>
+      <c r="E202" s="0" t="str">
+        <v>192.168.5.75</v>
+      </c>
+      <c r="F202" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G202" s="0" t="str">
+        <v>51160589</v>
+      </c>
+      <c r="H202" s="0" t="str">
+        <v>36564</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" customFormat="false">
+      <c r="A203" s="0" t="str">
+        <v>0005545821</v>
+      </c>
+      <c r="B203" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C203" s="0" t="str">
+        <v>08:38:30</v>
+      </c>
+      <c r="D203" s="0">
+        <v>20.5851011</v>
+      </c>
+      <c r="E203" s="0" t="str">
+        <v>192.168.43.1</v>
+      </c>
+      <c r="F203" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G203" s="0" t="str">
+        <v>51160590</v>
+      </c>
+      <c r="H203" s="0" t="str">
+        <v>36565</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" customFormat="false">
+      <c r="A204" s="0" t="str">
+        <v>0005542369</v>
+      </c>
+      <c r="B204" s="0" t="str">
+        <v>2022-04-22</v>
+      </c>
+      <c r="C204" s="0" t="str">
+        <v>04:14:02</v>
+      </c>
+      <c r="D204" s="0">
+        <v>26.9493896</v>
+      </c>
+      <c r="E204" s="0" t="str">
+        <v>172.20.10.4</v>
+      </c>
+      <c r="F204" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G204" s="0" t="str">
+        <v>51160632</v>
+      </c>
+      <c r="H204" s="0" t="str">
+        <v>36566</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" customFormat="false">
+      <c r="A205" s="0" t="str">
+        <v>0005541284</v>
+      </c>
+      <c r="B205" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C205" s="0" t="str">
+        <v>11:17:44</v>
+      </c>
+      <c r="D205" s="0">
+        <v>19.3421716</v>
+      </c>
+      <c r="E205" s="0" t="str">
+        <v>192.168.100.16</v>
+      </c>
+      <c r="F205" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G205" s="0" t="str">
+        <v>51160666</v>
+      </c>
+      <c r="H205" s="0" t="str">
+        <v>36567</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" customFormat="false">
+      <c r="A206" s="0" t="str">
+        <v>0001674660</v>
+      </c>
+      <c r="B206" s="0" t="str">
+        <v>2022-04-21</v>
+      </c>
+      <c r="C206" s="0" t="str">
+        <v>07:44:39</v>
+      </c>
+      <c r="D206" s="0">
+        <v>19.6861191</v>
+      </c>
+      <c r="E206" s="0" t="str">
+        <v>192.168.10.103</v>
+      </c>
+      <c r="F206" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G206" s="0" t="str">
+        <v>51160702</v>
+      </c>
+      <c r="H206" s="0" t="str">
+        <v>36568</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" customFormat="false">
+      <c r="A207" s="0" t="str">
+        <v>0005544295</v>
+      </c>
+      <c r="B207" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C207" s="0" t="str">
+        <v>05:19:31</v>
+      </c>
+      <c r="D207" s="0">
+        <v>19.4273712</v>
+      </c>
+      <c r="E207" s="0" t="str">
+        <v>10.61.35.213</v>
+      </c>
+      <c r="F207" s="0" t="str">
+        <v>Mi 9T Pro</v>
+      </c>
+      <c r="G207" s="0" t="str">
+        <v>51160716</v>
+      </c>
+      <c r="H207" s="0" t="str">
+        <v>36569</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" customFormat="false">
+      <c r="A208" s="0" t="str">
+        <v>0004979586</v>
+      </c>
+      <c r="B208" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C208" s="0" t="str">
+        <v>12:10:41</v>
+      </c>
+      <c r="D208" s="0">
+        <v>20.11612</v>
+      </c>
+      <c r="E208" s="0" t="str">
+        <v>10.195.196.29</v>
+      </c>
+      <c r="F208" s="0" t="str">
+        <v>SM-A107M</v>
+      </c>
+      <c r="G208" s="0" t="str">
+        <v>51160753</v>
+      </c>
+      <c r="H208" s="0" t="str">
+        <v>36570</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" customFormat="false">
+      <c r="A209" s="0" t="str">
+        <v>0005345924</v>
+      </c>
+      <c r="B209" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C209" s="0" t="str">
+        <v>01:44:04</v>
+      </c>
+      <c r="D209" s="0">
+        <v>19.4270906</v>
+      </c>
+      <c r="E209" s="0" t="str">
+        <v>56.9.215.160</v>
+      </c>
+      <c r="F209" s="0" t="str">
+        <v>M2004J19C</v>
+      </c>
+      <c r="G209" s="0" t="str">
+        <v>51160790</v>
+      </c>
+      <c r="H209" s="0" t="str">
+        <v>36571</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" customFormat="false">
+      <c r="A210" s="0" t="str">
+        <v>0004956182</v>
+      </c>
+      <c r="B210" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C210" s="0" t="str">
+        <v>11:43:53</v>
+      </c>
+      <c r="D210" s="0">
+        <v>19.4046707</v>
+      </c>
+      <c r="E210" s="0" t="str">
+        <v>10.144.18.249</v>
+      </c>
+      <c r="F210" s="0" t="str">
+        <v>moto g(6) play</v>
+      </c>
+      <c r="G210" s="0" t="str">
+        <v>51160811</v>
+      </c>
+      <c r="H210" s="0" t="str">
+        <v>36572</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" customFormat="false">
+      <c r="A211" s="0" t="str">
+        <v>0005550020</v>
+      </c>
+      <c r="B211" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C211" s="0" t="str">
+        <v>02:24:30</v>
+      </c>
+      <c r="D211" s="0">
+        <v>20.1161415</v>
+      </c>
+      <c r="E211" s="0" t="str">
+        <v>100.71.71.231</v>
+      </c>
+      <c r="F211" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G211" s="0" t="str">
+        <v>51160822</v>
+      </c>
+      <c r="H211" s="0" t="str">
+        <v>36573</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" customFormat="false">
+      <c r="A212" s="0" t="str">
+        <v>0002009036</v>
+      </c>
+      <c r="B212" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C212" s="0" t="str">
+        <v>02:16:30</v>
+      </c>
+      <c r="D212" s="0">
+        <v>19.3423727</v>
+      </c>
+      <c r="E212" s="0" t="str">
+        <v>192.168.100.16</v>
+      </c>
+      <c r="F212" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G212" s="0" t="str">
+        <v>51160832</v>
+      </c>
+      <c r="H212" s="0" t="str">
+        <v>36574</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" customFormat="false">
+      <c r="A213" s="0" t="str">
+        <v>0005549020</v>
+      </c>
+      <c r="B213" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C213" s="0" t="str">
+        <v>02:30:52</v>
+      </c>
+      <c r="D213" s="0">
+        <v>19.3422458</v>
+      </c>
+      <c r="E213" s="0" t="str">
+        <v>192.168.100.12</v>
+      </c>
+      <c r="F213" s="0" t="str">
+        <v>A7 Pro</v>
+      </c>
+      <c r="G213" s="0" t="str">
+        <v>51160837</v>
+      </c>
+      <c r="H213" s="0" t="str">
+        <v>36575</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" customFormat="false">
+      <c r="A214" s="0" t="str">
+        <v>0004856223</v>
+      </c>
+      <c r="B214" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C214" s="0" t="str">
+        <v>03:34:32</v>
+      </c>
+      <c r="D214" s="0">
+        <v>19.3420596</v>
+      </c>
+      <c r="E214" s="0" t="str">
+        <v>192.168.100.29</v>
+      </c>
+      <c r="F214" s="0" t="str">
+        <v>JKM-LX3</v>
+      </c>
+      <c r="G214" s="0" t="str">
+        <v>51160874</v>
+      </c>
+      <c r="H214" s="0" t="str">
+        <v>36576</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" customFormat="false">
+      <c r="A215" s="0" t="str">
+        <v>0001120385</v>
+      </c>
+      <c r="B215" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C215" s="0" t="str">
+        <v>07:26:38</v>
+      </c>
+      <c r="D215" s="0">
+        <v>19.4269113</v>
+      </c>
+      <c r="E215" s="0" t="str">
+        <v>10.110.31.223</v>
+      </c>
+      <c r="F215" s="0" t="str">
+        <v>M2003J15SC</v>
+      </c>
+      <c r="G215" s="0" t="str">
+        <v>51160899</v>
+      </c>
+      <c r="H215" s="0" t="str">
+        <v>36577</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" customFormat="false">
+      <c r="A216" s="0" t="str">
+        <v>0004307668</v>
+      </c>
+      <c r="B216" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C216" s="0" t="str">
+        <v>04:28:09</v>
+      </c>
+      <c r="D216" s="0">
+        <v>21.1316246</v>
+      </c>
+      <c r="E216" s="0" t="str">
+        <v>10.138.146.135</v>
+      </c>
+      <c r="F216" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G216" s="0" t="str">
+        <v>51160914</v>
+      </c>
+      <c r="H216" s="0" t="str">
+        <v>36578</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" customFormat="false">
+      <c r="A217" s="0" t="str">
+        <v>0004977226</v>
+      </c>
+      <c r="B217" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C217" s="0" t="str">
+        <v>04:40:57</v>
+      </c>
+      <c r="D217" s="0">
+        <v>19.427043</v>
+      </c>
+      <c r="E217" s="0" t="str">
+        <v>10.121.178.243</v>
+      </c>
+      <c r="F217" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G217" s="0" t="str">
+        <v>51160925</v>
+      </c>
+      <c r="H217" s="0" t="str">
+        <v>36579</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" customFormat="false">
+      <c r="A218" s="0" t="str">
+        <v>0005551007</v>
+      </c>
+      <c r="B218" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C218" s="0" t="str">
+        <v>05:22:47</v>
+      </c>
+      <c r="D218" s="0">
+        <v>19.2529687</v>
+      </c>
+      <c r="E218" s="0" t="str">
+        <v>10.46.224.189</v>
+      </c>
+      <c r="F218" s="0" t="str">
+        <v>moto g(7) plus</v>
+      </c>
+      <c r="G218" s="0" t="str">
+        <v>51160988</v>
+      </c>
+      <c r="H218" s="0" t="str">
+        <v>36580</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" customFormat="false">
+      <c r="A219" s="0" t="str">
+        <v>0005550143</v>
+      </c>
+      <c r="B219" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C219" s="0" t="str">
+        <v>11:55:42</v>
+      </c>
+      <c r="D219" s="0">
+        <v>24.012207</v>
+      </c>
+      <c r="E219" s="0" t="str">
+        <v>192.168.1.12</v>
+      </c>
+      <c r="F219" s="0" t="str">
+        <v>G91</v>
+      </c>
+      <c r="G219" s="0" t="str">
+        <v>51161007</v>
+      </c>
+      <c r="H219" s="0" t="str">
+        <v>36581</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" customFormat="false">
+      <c r="A220" s="0" t="str">
+        <v>0005549105</v>
+      </c>
+      <c r="B220" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C220" s="0" t="str">
+        <v>08:00:39</v>
+      </c>
+      <c r="D220" s="0">
+        <v>19.6861298</v>
+      </c>
+      <c r="E220" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F220" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G220" s="0" t="str">
+        <v>51160585</v>
+      </c>
+      <c r="H220" s="0" t="str">
+        <v>36582</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" customFormat="false">
+      <c r="A221" s="0" t="str">
+        <v>0000182672</v>
+      </c>
+      <c r="B221" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C221" s="0" t="str">
+        <v>10:15:52</v>
+      </c>
+      <c r="D221" s="0">
+        <v>19.38788</v>
+      </c>
+      <c r="E221" s="0" t="str">
+        <v>10.32.19.219</v>
+      </c>
+      <c r="F221" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G221" s="0" t="str">
+        <v>51160627</v>
+      </c>
+      <c r="H221" s="0" t="str">
+        <v>36583</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" customFormat="false">
+      <c r="A222" s="0" t="str">
+        <v>0001107436</v>
+      </c>
+      <c r="B222" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C222" s="0" t="str">
+        <v>07:44:19</v>
+      </c>
+      <c r="D222" s="0">
+        <v>20.6707894</v>
+      </c>
+      <c r="E222" s="0" t="str">
+        <v>192.168.1.69</v>
+      </c>
+      <c r="F222" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G222" s="0" t="str">
+        <v>51160649</v>
+      </c>
+      <c r="H222" s="0" t="str">
+        <v>36584</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" customFormat="false">
+      <c r="A223" s="0" t="str">
+        <v>0004957977</v>
+      </c>
+      <c r="B223" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C223" s="0" t="str">
+        <v>05:03:57</v>
+      </c>
+      <c r="D223" s="0">
+        <v>19.4271045</v>
+      </c>
+      <c r="E223" s="0" t="str">
+        <v>10.81.215.181</v>
+      </c>
+      <c r="F223" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G223" s="0" t="str">
+        <v>51161427</v>
+      </c>
+      <c r="H223" s="0" t="str">
+        <v>36585</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" customFormat="false">
+      <c r="A224" s="0" t="str">
+        <v>0004806483</v>
+      </c>
+      <c r="B224" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C224" s="0" t="str">
+        <v>06:14:09</v>
+      </c>
+      <c r="D224" s="0">
+        <v>19.6861218</v>
+      </c>
+      <c r="E224" s="0" t="str">
+        <v>192.168.100.82</v>
+      </c>
+      <c r="F224" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G224" s="0" t="str">
+        <v>51161193</v>
+      </c>
+      <c r="H224" s="0" t="str">
+        <v>36586</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" customFormat="false">
+      <c r="A225" s="0" t="str">
+        <v>0005549668</v>
+      </c>
+      <c r="B225" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C225" s="0" t="str">
+        <v>12:45:40</v>
+      </c>
+      <c r="D225" s="0">
+        <v>19.4335631</v>
+      </c>
+      <c r="E225" s="0" t="str">
+        <v>192.168.0.7</v>
+      </c>
+      <c r="F225" s="0" t="str">
+        <v>CPH2239</v>
+      </c>
+      <c r="G225" s="0" t="str">
+        <v>51161223</v>
+      </c>
+      <c r="H225" s="0" t="str">
+        <v>36587</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" customFormat="false">
+      <c r="A226" s="0" t="str">
+        <v>0004816329</v>
+      </c>
+      <c r="B226" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C226" s="0" t="str">
+        <v>01:01:39</v>
+      </c>
+      <c r="D226" s="0">
+        <v>19.6861718</v>
+      </c>
+      <c r="E226" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F226" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G226" s="0" t="str">
+        <v>51161240</v>
+      </c>
+      <c r="H226" s="0" t="str">
+        <v>36588</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" customFormat="false">
+      <c r="A227" s="0" t="str">
+        <v>0004957516</v>
+      </c>
+      <c r="B227" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C227" s="0" t="str">
+        <v>01:18:55</v>
+      </c>
+      <c r="D227" s="0">
+        <v>19.4273179</v>
+      </c>
+      <c r="E227" s="0" t="str">
+        <v>10.81.215.181</v>
+      </c>
+      <c r="F227" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G227" s="0" t="str">
+        <v>51161253</v>
+      </c>
+      <c r="H227" s="0" t="str">
+        <v>36589</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" customFormat="false">
+      <c r="A228" s="0" t="str">
+        <v>0004972887</v>
+      </c>
+      <c r="B228" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C228" s="0" t="str">
+        <v>02:21:32</v>
+      </c>
+      <c r="D228" s="0">
+        <v>20.0739917</v>
+      </c>
+      <c r="E228" s="0" t="str">
+        <v>10.24.197.4</v>
+      </c>
+      <c r="F228" s="0" t="str">
+        <v>V2058</v>
+      </c>
+      <c r="G228" s="0" t="str">
+        <v>51161299</v>
+      </c>
+      <c r="H228" s="0" t="str">
+        <v>36590</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" customFormat="false">
+      <c r="A229" s="0" t="str">
+        <v>0005540801</v>
+      </c>
+      <c r="B229" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C229" s="0" t="str">
+        <v>02:54:21</v>
+      </c>
+      <c r="D229" s="0">
+        <v>26.9027976</v>
+      </c>
+      <c r="E229" s="0" t="str">
+        <v>10.29.46.118</v>
+      </c>
+      <c r="F229" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G229" s="0" t="str">
+        <v>51161326</v>
+      </c>
+      <c r="H229" s="0" t="str">
+        <v>36591</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" customFormat="false">
+      <c r="A230" s="0" t="str">
+        <v>0001995760</v>
+      </c>
+      <c r="B230" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C230" s="0" t="str">
+        <v>11:44:25</v>
+      </c>
+      <c r="D230" s="0">
+        <v>19.4336472</v>
+      </c>
+      <c r="E230" s="0" t="str">
+        <v>192.168.0.7</v>
+      </c>
+      <c r="F230" s="0" t="str">
+        <v>CPH2239</v>
+      </c>
+      <c r="G230" s="0" t="str">
+        <v>51161374</v>
+      </c>
+      <c r="H230" s="0" t="str">
+        <v>36592</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" customFormat="false">
+      <c r="A231" s="0" t="str">
+        <v>0005552428</v>
+      </c>
+      <c r="B231" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C231" s="0" t="str">
+        <v>04:00:09</v>
+      </c>
+      <c r="D231" s="0">
+        <v>19.4273457</v>
+      </c>
+      <c r="E231" s="0" t="str">
+        <v>10.44.217.219</v>
+      </c>
+      <c r="F231" s="0" t="str">
+        <v>Mi 9T Pro</v>
+      </c>
+      <c r="G231" s="0" t="str">
+        <v>51161385</v>
+      </c>
+      <c r="H231" s="0" t="str">
+        <v>36593</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" customFormat="false">
+      <c r="A232" s="0" t="str">
+        <v>0003916882</v>
+      </c>
+      <c r="B232" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C232" s="0" t="str">
+        <v>04:30:19</v>
+      </c>
+      <c r="D232" s="0">
+        <v>19.6861213</v>
+      </c>
+      <c r="E232" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F232" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G232" s="0" t="str">
+        <v>51161499</v>
+      </c>
+      <c r="H232" s="0" t="str">
+        <v>36594</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" customFormat="false">
+      <c r="A233" s="0" t="str">
+        <v>0004968650</v>
+      </c>
+      <c r="B233" s="0" t="str">
+        <v>2022-04-25</v>
+      </c>
+      <c r="C233" s="0" t="str">
+        <v>05:05:00</v>
+      </c>
+      <c r="D233" s="0">
+        <v>19.4268873</v>
+      </c>
+      <c r="E233" s="0" t="str">
+        <v>10.110.31.223</v>
+      </c>
+      <c r="F233" s="0" t="str">
+        <v>M2003J15SC</v>
+      </c>
+      <c r="G233" s="0" t="str">
+        <v>51161587</v>
+      </c>
+      <c r="H233" s="0" t="str">
+        <v>36595</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" customFormat="false">
+      <c r="A234" s="0" t="str">
+        <v>0005550102</v>
+      </c>
+      <c r="B234" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C234" s="0" t="str">
+        <v>09:26:05</v>
+      </c>
+      <c r="D234" s="0">
+        <v>20.5846358</v>
+      </c>
+      <c r="E234" s="0" t="str">
+        <v>192.168.5.71</v>
+      </c>
+      <c r="F234" s="0" t="str">
+        <v>M2010J19SL</v>
+      </c>
+      <c r="G234" s="0" t="str">
+        <v>51161115</v>
+      </c>
+      <c r="H234" s="0" t="str">
+        <v>36596</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" customFormat="false">
+      <c r="A235" s="0" t="str">
+        <v>0005551131</v>
+      </c>
+      <c r="B235" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C235" s="0" t="str">
+        <v>01:50:05</v>
+      </c>
+      <c r="D235" s="0">
+        <v>19.3421781</v>
+      </c>
+      <c r="E235" s="0" t="str">
+        <v>192.168.100.8</v>
+      </c>
+      <c r="F235" s="0" t="str">
+        <v>JKM-LX3</v>
+      </c>
+      <c r="G235" s="0" t="str">
+        <v>51161281</v>
+      </c>
+      <c r="H235" s="0" t="str">
+        <v>36597</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" customFormat="false">
+      <c r="A236" s="0" t="str">
+        <v>0004959865</v>
+      </c>
+      <c r="B236" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C236" s="0" t="str">
+        <v>12:21:11</v>
+      </c>
+      <c r="D236" s="0">
+        <v>17.0578604</v>
+      </c>
+      <c r="E236" s="0" t="str">
+        <v>192.168.1.142</v>
+      </c>
+      <c r="F236" s="0" t="str">
+        <v>ZTE 8030</v>
+      </c>
+      <c r="G236" s="0" t="str">
+        <v>51161617</v>
+      </c>
+      <c r="H236" s="0" t="str">
+        <v>36598</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" customFormat="false">
+      <c r="A237" s="0" t="str">
+        <v>0004979135</v>
+      </c>
+      <c r="B237" s="0" t="str">
+        <v>2022-04-27</v>
+      </c>
+      <c r="C237" s="0" t="str">
+        <v>04:05:32</v>
+      </c>
+      <c r="D237" s="0">
+        <v>19.4575717</v>
+      </c>
+      <c r="E237" s="0" t="str">
+        <v>10.95.253.11</v>
+      </c>
+      <c r="F237" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G237" s="0" t="str">
+        <v>51161690</v>
+      </c>
+      <c r="H237" s="0" t="str">
+        <v>36599</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" customFormat="false">
+      <c r="A238" s="0" t="str">
+        <v>0005552329</v>
+      </c>
+      <c r="B238" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C238" s="0" t="str">
+        <v>10:53:57</v>
+      </c>
+      <c r="D238" s="0">
+        <v>20.6886735</v>
+      </c>
+      <c r="E238" s="0" t="str">
+        <v>192.168.1.93</v>
+      </c>
+      <c r="F238" s="0" t="str">
+        <v>STK-LX3</v>
+      </c>
+      <c r="G238" s="0" t="str">
+        <v>51161753</v>
+      </c>
+      <c r="H238" s="0" t="str">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" customFormat="false">
+      <c r="A239" s="0" t="str">
+        <v>0005554018</v>
+      </c>
+      <c r="B239" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C239" s="0" t="str">
+        <v>02:38:24</v>
+      </c>
+      <c r="D239" s="0">
+        <v>19.6861613</v>
+      </c>
+      <c r="E239" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F239" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G239" s="0" t="str">
+        <v>51161818</v>
+      </c>
+      <c r="H239" s="0" t="str">
+        <v>36601</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" customFormat="false">
+      <c r="A240" s="0" t="str">
+        <v>0004845811</v>
+      </c>
+      <c r="B240" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C240" s="0" t="str">
+        <v>03:27:01</v>
+      </c>
+      <c r="D240" s="0">
+        <v>20.11614</v>
+      </c>
+      <c r="E240" s="0" t="str">
+        <v>10.61.124.205</v>
+      </c>
+      <c r="F240" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G240" s="0" t="str">
+        <v>51161859</v>
+      </c>
+      <c r="H240" s="0" t="str">
+        <v>36602</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" customFormat="false">
+      <c r="A241" s="0" t="str">
+        <v>0005554427</v>
+      </c>
+      <c r="B241" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C241" s="0" t="str">
+        <v>04:10:26</v>
+      </c>
+      <c r="D241" s="0">
+        <v>25.6738648</v>
+      </c>
+      <c r="E241" s="0" t="str">
+        <v>192.168.1.69</v>
+      </c>
+      <c r="F241" s="0" t="str">
+        <v>SM-A715F</v>
+      </c>
+      <c r="G241" s="0" t="str">
+        <v>51161921</v>
+      </c>
+      <c r="H241" s="0" t="str">
+        <v>36603</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" customFormat="false">
+      <c r="A242" s="0" t="str">
+        <v>0005324366</v>
+      </c>
+      <c r="B242" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C242" s="0" t="str">
+        <v>05:04:48</v>
+      </c>
+      <c r="D242" s="0">
+        <v>19.3420741</v>
+      </c>
+      <c r="E242" s="0" t="str">
+        <v>192.168.100.8</v>
+      </c>
+      <c r="F242" s="0" t="str">
+        <v>JKM-LX3</v>
+      </c>
+      <c r="G242" s="0" t="str">
+        <v>51162012</v>
+      </c>
+      <c r="H242" s="0" t="str">
+        <v>36604</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" customFormat="false">
+      <c r="A243" s="0" t="str">
+        <v>0005553318</v>
+      </c>
+      <c r="B243" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C243" s="0" t="str">
+        <v>08:29:51</v>
+      </c>
+      <c r="D243" s="0">
+        <v>19.68567</v>
+      </c>
+      <c r="E243" s="0" t="str">
+        <v>192.168.100.82</v>
+      </c>
+      <c r="F243" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G243" s="0" t="str">
+        <v>51161599</v>
+      </c>
+      <c r="H243" s="0" t="str">
+        <v>36605</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" customFormat="false">
+      <c r="A244" s="0" t="str">
+        <v>0004953367</v>
+      </c>
+      <c r="B244" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C244" s="0" t="str">
+        <v>09:31:13</v>
+      </c>
+      <c r="D244" s="0">
+        <v>28.6890518</v>
+      </c>
+      <c r="E244" s="0" t="str">
+        <v>10.0.0.4</v>
+      </c>
+      <c r="F244" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G244" s="0" t="str">
+        <v>51161605</v>
+      </c>
+      <c r="H244" s="0" t="str">
+        <v>36606</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" customFormat="false">
+      <c r="A245" s="0" t="str">
+        <v>0005550212</v>
+      </c>
+      <c r="B245" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C245" s="0" t="str">
+        <v>10:07:51</v>
+      </c>
+      <c r="D245" s="0">
+        <v>25.7549069</v>
+      </c>
+      <c r="E245" s="0" t="str">
+        <v>192.168.1.65</v>
+      </c>
+      <c r="F245" s="0" t="str">
+        <v>motorola one vision</v>
+      </c>
+      <c r="G245" s="0" t="str">
+        <v>51161618</v>
+      </c>
+      <c r="H245" s="0" t="str">
+        <v>36607</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" customFormat="false">
+      <c r="A246" s="0" t="str">
+        <v>0004705146</v>
+      </c>
+      <c r="B246" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C246" s="0" t="str">
+        <v>10:57:37</v>
+      </c>
+      <c r="D246" s="0">
+        <v>19.3313</v>
+      </c>
+      <c r="E246" s="0" t="str">
+        <v>192.168.0.5</v>
+      </c>
+      <c r="F246" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G246" s="0" t="str">
+        <v>51161640</v>
+      </c>
+      <c r="H246" s="0" t="str">
+        <v>36608</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" customFormat="false">
+      <c r="A247" s="0" t="str">
+        <v>0005550014</v>
+      </c>
+      <c r="B247" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C247" s="0" t="str">
+        <v>10:44:55</v>
+      </c>
+      <c r="D247" s="0">
+        <v>19.3420684</v>
+      </c>
+      <c r="E247" s="0" t="str">
+        <v>192.168.100.8</v>
+      </c>
+      <c r="F247" s="0" t="str">
+        <v>JKM-LX3</v>
+      </c>
+      <c r="G247" s="0" t="str">
+        <v>51161641</v>
+      </c>
+      <c r="H247" s="0" t="str">
+        <v>36609</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" customFormat="false">
+      <c r="A248" s="0" t="str">
+        <v>0005553883</v>
+      </c>
+      <c r="B248" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C248" s="0" t="str">
+        <v>10:58:16</v>
+      </c>
+      <c r="D248" s="0">
+        <v>21.0720537</v>
+      </c>
+      <c r="E248" s="0" t="str">
+        <v>10.22.66.158</v>
+      </c>
+      <c r="F248" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G248" s="0" t="str">
+        <v>51161700</v>
+      </c>
+      <c r="H248" s="0" t="str">
+        <v>36610</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" customFormat="false">
+      <c r="A249" s="0" t="str">
+        <v>0005554990</v>
+      </c>
+      <c r="B249" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C249" s="0" t="str">
+        <v>08:46:11</v>
+      </c>
+      <c r="D249" s="0">
+        <v>19.68615</v>
+      </c>
+      <c r="E249" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F249" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G249" s="0" t="str">
+        <v>51162142</v>
+      </c>
+      <c r="H249" s="0"/>
+    </row>
+    <row r="250" spans="1:8" customFormat="false">
+      <c r="A250" s="0" t="str">
+        <v>0005554848</v>
+      </c>
+      <c r="B250" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C250" s="0" t="str">
+        <v>08:48:33</v>
+      </c>
+      <c r="D250" s="0">
+        <v>19.6861698</v>
+      </c>
+      <c r="E250" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F250" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G250" s="0" t="str">
+        <v>51162143</v>
+      </c>
+      <c r="H250" s="0" t="str">
+        <v>36611</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" customFormat="false">
+      <c r="A251" s="0" t="str">
         <v>0005555182</v>
       </c>
-      <c r="B4" s="0" t="str">
+      <c r="B251" s="0" t="str">
         <v>2022-04-29</v>
       </c>
-      <c r="C4" s="0" t="str">
+      <c r="C251" s="0" t="str">
         <v>08:55:44</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D251" s="0">
         <v>19.6861685</v>
       </c>
-      <c r="E4" s="0">
-        <v>-101.2342523</v>
-      </c>
-      <c r="F4" s="0" t="str">
+      <c r="E251" s="0" t="str">
         <v>192.168.100.11</v>
       </c>
-      <c r="G4" s="0" t="str">
+      <c r="F251" s="0" t="str">
         <v>JSN-L23</v>
       </c>
-      <c r="H4" s="0" t="str">
-        <v>26213</v>
+      <c r="G251" s="0" t="str">
+        <v>51162145</v>
+      </c>
+      <c r="H251" s="0" t="str">
+        <v>36612</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" customFormat="false">
+      <c r="A252" s="0" t="str">
+        <v>0005554906</v>
+      </c>
+      <c r="B252" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C252" s="0" t="str">
+        <v>06:49:48</v>
+      </c>
+      <c r="D252" s="0">
+        <v>20.0807417</v>
+      </c>
+      <c r="E252" s="0" t="str">
+        <v>192.168.1.90</v>
+      </c>
+      <c r="F252" s="0" t="str">
+        <v>SM-A107M</v>
+      </c>
+      <c r="G252" s="0" t="str">
+        <v>51162210</v>
+      </c>
+      <c r="H252" s="0" t="str">
+        <v>36613</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" customFormat="false">
+      <c r="A253" s="0" t="str">
+        <v>0004970723</v>
+      </c>
+      <c r="B253" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C253" s="0" t="str">
+        <v>11:26:36</v>
+      </c>
+      <c r="D253" s="0">
+        <v>20.1161433</v>
+      </c>
+      <c r="E253" s="0" t="str">
+        <v>10.90.21.165</v>
+      </c>
+      <c r="F253" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G253" s="0" t="str">
+        <v>51162213</v>
+      </c>
+      <c r="H253" s="0" t="str">
+        <v>36614</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" customFormat="false">
+      <c r="A254" s="0" t="str">
+        <v>0004953490</v>
+      </c>
+      <c r="B254" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C254" s="0" t="str">
+        <v>11:37:20</v>
+      </c>
+      <c r="D254" s="0">
+        <v>19.1987998</v>
+      </c>
+      <c r="E254" s="0" t="str">
+        <v>192.168.100.15</v>
+      </c>
+      <c r="F254" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G254" s="0" t="str">
+        <v>51162219</v>
+      </c>
+      <c r="H254" s="0" t="str">
+        <v>36615</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" customFormat="false">
+      <c r="A255" s="0" t="str">
+        <v>0004955623</v>
+      </c>
+      <c r="B255" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C255" s="0" t="str">
+        <v>02:19:37</v>
+      </c>
+      <c r="D255" s="0">
+        <v>20.0638383</v>
+      </c>
+      <c r="E255" s="0" t="str">
+        <v>10.91.93.124</v>
+      </c>
+      <c r="F255" s="0" t="str">
+        <v>M2101K7BL</v>
+      </c>
+      <c r="G255" s="0" t="str">
+        <v>51162220</v>
+      </c>
+      <c r="H255" s="0" t="str">
+        <v>36616</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" customFormat="false">
+      <c r="A256" s="0" t="str">
+        <v>0005555309</v>
+      </c>
+      <c r="B256" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C256" s="0" t="str">
+        <v>11:54:38</v>
+      </c>
+      <c r="D256" s="0">
+        <v>19.6861223</v>
+      </c>
+      <c r="E256" s="0" t="str">
+        <v>192.168.100.88</v>
+      </c>
+      <c r="F256" s="0" t="str">
+        <v>SM-A125M</v>
+      </c>
+      <c r="G256" s="0" t="str">
+        <v>51162231</v>
+      </c>
+      <c r="H256" s="0" t="str">
+        <v>36617</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" customFormat="false">
+      <c r="A257" s="0" t="str">
+        <v>0005553835</v>
+      </c>
+      <c r="B257" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C257" s="0" t="str">
+        <v>05:28:41</v>
+      </c>
+      <c r="D257" s="0">
+        <v>19.686235</v>
+      </c>
+      <c r="E257" s="0" t="str">
+        <v>192.168.100.11</v>
+      </c>
+      <c r="F257" s="0" t="str">
+        <v>JSN-L23</v>
+      </c>
+      <c r="G257" s="0" t="str">
+        <v>51162241</v>
+      </c>
+      <c r="H257" s="0" t="str">
+        <v>36618</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" customFormat="false">
+      <c r="A258" s="0" t="str">
+        <v>0005555361</v>
+      </c>
+      <c r="B258" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C258" s="0" t="str">
+        <v>12:23:11</v>
+      </c>
+      <c r="D258" s="0">
+        <v>24.023964</v>
+      </c>
+      <c r="E258" s="0" t="str">
+        <v>10.129.130.51</v>
+      </c>
+      <c r="F258" s="0" t="str">
+        <v>SNE-LX3</v>
+      </c>
+      <c r="G258" s="0" t="str">
+        <v>51162253</v>
+      </c>
+      <c r="H258" s="0" t="str">
+        <v>36619</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" customFormat="false">
+      <c r="A259" s="0" t="str">
+        <v>0004978191</v>
+      </c>
+      <c r="B259" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C259" s="0" t="str">
+        <v>12:45:17</v>
+      </c>
+      <c r="D259" s="0">
+        <v>19.426716</v>
+      </c>
+      <c r="E259" s="0" t="str">
+        <v>10.232.148.16</v>
+      </c>
+      <c r="F259" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G259" s="0" t="str">
+        <v>51162270</v>
+      </c>
+      <c r="H259" s="0" t="str">
+        <v>36620</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" customFormat="false">
+      <c r="A260" s="0" t="str">
+        <v>0005543336</v>
+      </c>
+      <c r="B260" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C260" s="0" t="str">
+        <v>12:52:50</v>
+      </c>
+      <c r="D260" s="0">
+        <v>19.4851361</v>
+      </c>
+      <c r="E260" s="0" t="str">
+        <v>192.168.0.6</v>
+      </c>
+      <c r="F260" s="0" t="str">
+        <v>moto e(6) plus</v>
+      </c>
+      <c r="G260" s="0" t="str">
+        <v>51162273</v>
+      </c>
+      <c r="H260" s="0" t="str">
+        <v>36621</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" customFormat="false">
+      <c r="A261" s="0" t="str">
+        <v>0005365722</v>
+      </c>
+      <c r="B261" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C261" s="0" t="str">
+        <v>12:49:55</v>
+      </c>
+      <c r="D261" s="0">
+        <v>19.426267</v>
+      </c>
+      <c r="E261" s="0" t="str">
+        <v>10.228.222.225</v>
+      </c>
+      <c r="F261" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G261" s="0" t="str">
+        <v>51162291</v>
+      </c>
+      <c r="H261" s="0" t="str">
+        <v>36622</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" customFormat="false">
+      <c r="A262" s="0" t="str">
+        <v>0004976806</v>
+      </c>
+      <c r="B262" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C262" s="0" t="str">
+        <v>01:51:28</v>
+      </c>
+      <c r="D262" s="0">
+        <v>19.123865</v>
+      </c>
+      <c r="E262" s="0" t="str">
+        <v>192.168.1.8</v>
+      </c>
+      <c r="F262" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G262" s="0" t="str">
+        <v>51162330</v>
+      </c>
+      <c r="H262" s="0" t="str">
+        <v>36623</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" customFormat="false">
+      <c r="A263" s="0" t="str">
+        <v>0005555825</v>
+      </c>
+      <c r="B263" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C263" s="0" t="str">
+        <v>02:53:04</v>
+      </c>
+      <c r="D263" s="0">
+        <v>19.454785</v>
+      </c>
+      <c r="E263" s="0" t="str">
+        <v>10.41.252.133</v>
+      </c>
+      <c r="F263" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G263" s="0" t="str">
+        <v>51162373</v>
+      </c>
+      <c r="H263" s="0" t="str">
+        <v>36624</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" customFormat="false">
+      <c r="A264" s="0" t="str">
+        <v>0004953702</v>
+      </c>
+      <c r="B264" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C264" s="0" t="str">
+        <v>02:54:50</v>
+      </c>
+      <c r="D264" s="0">
+        <v>20.1161181</v>
+      </c>
+      <c r="E264" s="0" t="str">
+        <v>10.44.130.180</v>
+      </c>
+      <c r="F264" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="G264" s="0" t="str">
+        <v>51162374</v>
+      </c>
+      <c r="H264" s="0" t="str">
+        <v>36625</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" customFormat="false">
+      <c r="A265" s="0" t="str">
+        <v>0005550086</v>
+      </c>
+      <c r="B265" s="0" t="str">
+        <v>2022-04-28</v>
+      </c>
+      <c r="C265" s="0" t="str">
+        <v>05:24:55</v>
+      </c>
+      <c r="D265" s="0">
+        <v>19.4272886</v>
+      </c>
+      <c r="E265" s="0" t="str">
+        <v>10.44.213.108</v>
+      </c>
+      <c r="F265" s="0" t="str">
+        <v>Mi 9T Pro</v>
+      </c>
+      <c r="G265" s="0" t="str">
+        <v>51162391</v>
+      </c>
+      <c r="H265" s="0" t="str">
+        <v>36626</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" customFormat="false">
+      <c r="A266" s="0" t="str">
+        <v>0000709229</v>
+      </c>
+      <c r="B266" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C266" s="0" t="str">
+        <v>03:39:06</v>
+      </c>
+      <c r="D266" s="0">
+        <v>19.4269186</v>
+      </c>
+      <c r="E266" s="0" t="str">
+        <v>10.129.221.139</v>
+      </c>
+      <c r="F266" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G266" s="0" t="str">
+        <v>51162403</v>
+      </c>
+      <c r="H266" s="0" t="str">
+        <v>36627</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" customFormat="false">
+      <c r="A267" s="0" t="str">
+        <v>0004967677</v>
+      </c>
+      <c r="B267" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C267" s="0" t="str">
+        <v>11:29:27</v>
+      </c>
+      <c r="D267" s="0">
+        <v>17.0578744</v>
+      </c>
+      <c r="E267" s="0" t="str">
+        <v>10.22.113.184</v>
+      </c>
+      <c r="F267" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="G267" s="0" t="str">
+        <v>51162416</v>
+      </c>
+      <c r="H267" s="0" t="str">
+        <v>36628</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" customFormat="false">
+      <c r="A268" s="0" t="str">
+        <v>0005082104</v>
+      </c>
+      <c r="B268" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C268" s="0" t="str">
+        <v>04:12:05</v>
+      </c>
+      <c r="D268" s="0">
+        <v>19.3894007</v>
+      </c>
+      <c r="E268" s="0" t="str">
+        <v>10.135.228.126</v>
+      </c>
+      <c r="F268" s="0" t="str">
+        <v>moto g(20)</v>
+      </c>
+      <c r="G268" s="0" t="str">
+        <v>51162425</v>
+      </c>
+      <c r="H268" s="0" t="str">
+        <v>36629</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" customFormat="false">
+      <c r="A269" s="0" t="str">
+        <v>0004597660</v>
+      </c>
+      <c r="B269" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C269" s="0" t="str">
+        <v>02:12:39</v>
+      </c>
+      <c r="D269" s="0">
+        <v>19.1989084</v>
+      </c>
+      <c r="E269" s="0" t="str">
+        <v>10.50.92.222</v>
+      </c>
+      <c r="F269" s="0" t="str">
+        <v>MAR-LX3Bm</v>
+      </c>
+      <c r="G269" s="0" t="str">
+        <v>51162439</v>
+      </c>
+      <c r="H269" s="0" t="str">
+        <v>36630</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" customFormat="false">
+      <c r="A270" s="0" t="str">
+        <v>0004967388</v>
+      </c>
+      <c r="B270" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C270" s="0" t="str">
+        <v>05:04:23</v>
+      </c>
+      <c r="D270" s="0">
+        <v>19.4270618</v>
+      </c>
+      <c r="E270" s="0" t="str">
+        <v>10.75.220.196</v>
+      </c>
+      <c r="F270" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G270" s="0" t="str">
+        <v>51162463</v>
+      </c>
+      <c r="H270" s="0" t="str">
+        <v>36631</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" customFormat="false">
+      <c r="A271" s="0" t="str">
+        <v>0005552627</v>
+      </c>
+      <c r="B271" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C271" s="0" t="str">
+        <v>05:23:29</v>
+      </c>
+      <c r="D271" s="0">
+        <v>19.3419031</v>
+      </c>
+      <c r="E271" s="0" t="str">
+        <v>192.168.100.17</v>
+      </c>
+      <c r="F271" s="0" t="str">
+        <v>Redmi Note 8</v>
+      </c>
+      <c r="G271" s="0" t="str">
+        <v>51162510</v>
+      </c>
+      <c r="H271" s="0" t="str">
+        <v>36632</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" customFormat="false">
+      <c r="A272" s="0" t="str">
+        <v>0000560794</v>
+      </c>
+      <c r="B272" s="0" t="str">
+        <v>2022-04-26</v>
+      </c>
+      <c r="C272" s="0" t="str">
+        <v>09:27:45</v>
+      </c>
+      <c r="D272" s="0">
+        <v>28.6890758</v>
+      </c>
+      <c r="E272" s="0" t="str">
+        <v>10.0.0.4</v>
+      </c>
+      <c r="F272" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G272" s="0" t="str">
+        <v>51162522</v>
+      </c>
+      <c r="H272" s="0" t="str">
+        <v>36633</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" customFormat="false">
+      <c r="A273" s="0" t="str">
+        <v>0005305792</v>
+      </c>
+      <c r="B273" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C273" s="0" t="str">
+        <v>01:49:37</v>
+      </c>
+      <c r="D273" s="0">
+        <v>19.4271533</v>
+      </c>
+      <c r="E273" s="0" t="str">
+        <v>10.38.191.178</v>
+      </c>
+      <c r="F273" s="0" t="str">
+        <v>21061119AL</v>
+      </c>
+      <c r="G273" s="0" t="str">
+        <v>51162539</v>
+      </c>
+      <c r="H273" s="0" t="str">
+        <v>36634</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" customFormat="false">
+      <c r="A274" s="0" t="str">
+        <v>0004960283</v>
+      </c>
+      <c r="B274" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C274" s="0" t="str">
+        <v>06:22:34</v>
+      </c>
+      <c r="D274" s="0">
+        <v>28.6891637</v>
+      </c>
+      <c r="E274" s="0" t="str">
+        <v>10.0.0.4</v>
+      </c>
+      <c r="F274" s="0" t="str">
+        <v>MAR-LX3A</v>
+      </c>
+      <c r="G274" s="0" t="str">
+        <v>51162550</v>
+      </c>
+      <c r="H274" s="0" t="str">
+        <v>36635</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" customFormat="false">
+      <c r="A275" s="0" t="str">
+        <v>0004909616</v>
+      </c>
+      <c r="B275" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C275" s="0" t="str">
+        <v>12:15:26</v>
+      </c>
+      <c r="D275" s="0">
+        <v>16.8610556</v>
+      </c>
+      <c r="E275" s="0" t="str">
+        <v>192.168.1.73</v>
+      </c>
+      <c r="F275" s="0" t="str">
+        <v>SM-A515F</v>
+      </c>
+      <c r="G275" s="0" t="str">
+        <v>51162610</v>
+      </c>
+      <c r="H275" s="0" t="str">
+        <v>36636</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" customFormat="false">
+      <c r="A276" s="0" t="str">
+        <v>0005539302</v>
+      </c>
+      <c r="B276" s="0" t="str">
+        <v>2022-04-30</v>
+      </c>
+      <c r="C276" s="0" t="str">
+        <v>10:26:09</v>
+      </c>
+      <c r="D276" s="0">
+        <v>19.3419777</v>
+      </c>
+      <c r="E276" s="0" t="str">
+        <v>192.168.100.8</v>
+      </c>
+      <c r="F276" s="0" t="str">
+        <v>JKM-LX3</v>
+      </c>
+      <c r="G276" s="0" t="str">
+        <v>51162638</v>
+      </c>
+      <c r="H276" s="0" t="str">
+        <v>36637</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" customFormat="false">
+      <c r="A277" s="0" t="str">
+        <v>0005281101</v>
+      </c>
+      <c r="B277" s="0" t="str">
+        <v>2022-04-30</v>
+      </c>
+      <c r="C277" s="0" t="str">
+        <v>12:17:02</v>
+      </c>
+      <c r="D277" s="0">
+        <v>19.4690414</v>
+      </c>
+      <c r="E277" s="0" t="str">
+        <v>10.86.209.130</v>
+      </c>
+      <c r="F277" s="0" t="str">
+        <v>SM-A105M</v>
+      </c>
+      <c r="G277" s="0" t="str">
+        <v>51162677</v>
+      </c>
+      <c r="H277" s="0" t="str">
+        <v>36638</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" customFormat="false">
+      <c r="A278" s="0" t="str">
+        <v>0005554877</v>
+      </c>
+      <c r="B278" s="0" t="str">
+        <v>2022-04-29</v>
+      </c>
+      <c r="C278" s="0" t="str">
+        <v>06:26:59</v>
+      </c>
+      <c r="D278" s="0">
+        <v>19.3420194</v>
+      </c>
+      <c r="E278" s="0" t="str">
+        <v>192.168.100.8</v>
+      </c>
+      <c r="F278" s="0" t="str">
+        <v>JKM-LX3</v>
+      </c>
+      <c r="G278" s="0" t="str">
+        <v>51162689</v>
+      </c>
+      <c r="H278" s="0" t="str">
+        <v>36639</v>
       </c>
     </row>
   </sheetData>

--- a/migration/result.xlsx
+++ b/migration/result.xlsx
@@ -422,9 +422,11 @@
       <c r="H2" s="0" t="str">
         <v>51162142</v>
       </c>
-      <c r="I2" s="0"/>
+      <c r="I2" s="0" t="str">
+        <v>36764</v>
+      </c>
       <c r="J2" s="0" t="str">
-        <v>{"geolocalizationResponseBO":{"status":"E","code":"500","response":"Number -101.23427649999999 cannot be encoded as a BCD of length 11 with 8 decimal places at field I_LONGITUD"}}</v>
+        <v>{"geolocalizationResponseBO":{"status":"C","code":"200","response":"Service terminated with no errors and warnings.","geolocalizationId":"36764"}}</v>
       </c>
     </row>
   </sheetData>

--- a/migration/result.xlsx
+++ b/migration/result.xlsx
@@ -363,9 +363,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K5"/>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="false">
+    <row r="1" spans="1:11" customFormat="false">
       <c r="A1" s="0" t="str">
         <v>bpId</v>
       </c>
@@ -388,45 +388,156 @@
         <v>deviceinfo</v>
       </c>
       <c r="H1" s="0" t="str">
+        <v>canal</v>
+      </c>
+      <c r="I1" s="0" t="str">
         <v>solicitud</v>
       </c>
-      <c r="I1" s="0" t="str">
+      <c r="J1" s="0" t="str">
         <v>geolocalizationId</v>
       </c>
-      <c r="J1" s="0" t="str">
+      <c r="K1" s="0" t="str">
         <v>response</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="false">
+    <row r="2" spans="1:11" customFormat="false">
       <c r="A2" s="0" t="str">
-        <v>0005554990</v>
+        <v>0002632492</v>
       </c>
       <c r="B2" s="0" t="str">
-        <v>2022-04-29</v>
+        <v>2022-08-31</v>
       </c>
       <c r="C2" s="0" t="str">
-        <v>08:46:11</v>
+        <v>02:15:29</v>
       </c>
       <c r="D2" s="0">
-        <v>19.68615</v>
+        <v>24.0526624</v>
       </c>
       <c r="E2" s="0">
-        <v>-101.23427649999999</v>
+        <v>-110.2913229</v>
       </c>
       <c r="F2" s="0" t="str">
-        <v>192.168.100.11</v>
+        <v>10.90.119.245</v>
       </c>
       <c r="G2" s="0" t="str">
-        <v>JSN-L23</v>
+        <v>SM-A505G</v>
       </c>
       <c r="H2" s="0" t="str">
-        <v>51162142</v>
+        <v>CM</v>
       </c>
       <c r="I2" s="0" t="str">
-        <v>36764</v>
+        <v>000800023026</v>
       </c>
       <c r="J2" s="0" t="str">
-        <v>{"geolocalizationResponseBO":{"status":"C","code":"200","response":"Service terminated with no errors and warnings.","geolocalizationId":"36764"}}</v>
+        <v>21410408</v>
+      </c>
+      <c r="K2" s="0" t="str">
+        <v>{"geolocalizationResponseBO":{"status":"C","code":"200","response":"Service terminated with no errors and warnings.","geolocalizationId":"21410408"}}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="false">
+      <c r="A3" s="0" t="str">
+        <v>0001991865</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <v>2022-09-14</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <v>02:49:32</v>
+      </c>
+      <c r="D3" s="0">
+        <v>20.9204952</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-89.597418</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <v>41.191.149.128</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <v>M2102J20SG</v>
+      </c>
+      <c r="H3" s="0" t="str">
+        <v>CM</v>
+      </c>
+      <c r="I3" s="0" t="str">
+        <v>000800025637</v>
+      </c>
+      <c r="J3" s="0" t="str">
+        <v>21410410</v>
+      </c>
+      <c r="K3" s="0" t="str">
+        <v>{"geolocalizationResponseBO":{"status":"C","code":"200","response":"Service terminated with no errors and warnings.","geolocalizationId":"21410410"}}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" customFormat="false">
+      <c r="A4" s="0" t="str">
+        <v>0005715075</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <v>2022-09-20</v>
+      </c>
+      <c r="C4" s="0" t="str">
+        <v>02:47:17</v>
+      </c>
+      <c r="D4" s="0">
+        <v>20.7328083</v>
+      </c>
+      <c r="E4" s="0">
+        <v>-103.357565</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <v>10.82.18.64</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <v>SM-A022M</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <v>CM</v>
+      </c>
+      <c r="I4" s="0" t="str">
+        <v>000800026520</v>
+      </c>
+      <c r="J4" s="0" t="str">
+        <v>21410412</v>
+      </c>
+      <c r="K4" s="0" t="str">
+        <v>{"geolocalizationResponseBO":{"status":"C","code":"200","response":"Service terminated with no errors and warnings.","geolocalizationId":"21410412"}}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" customFormat="false">
+      <c r="A5" s="0" t="str">
+        <v>0004960542</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <v>2022-11-15</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <v>11:25:59</v>
+      </c>
+      <c r="D5" s="0">
+        <v>19.434028</v>
+      </c>
+      <c r="E5" s="0">
+        <v>-99.1911525</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <v>10.10.10.65</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <v>SM-A037M</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v>CM</v>
+      </c>
+      <c r="I5" s="0" t="str">
+        <v>000800054360</v>
+      </c>
+      <c r="J5" s="0" t="str">
+        <v>21410413</v>
+      </c>
+      <c r="K5" s="0" t="str">
+        <v>{"geolocalizationResponseBO":{"status":"C","code":"200","response":"Service terminated with no errors and warnings.","geolocalizationId":"21410413"}}</v>
       </c>
     </row>
   </sheetData>
